--- a/plot/4_winsT_10_fcType_4.xlsx
+++ b/plot/4_winsT_10_fcType_4.xlsx
@@ -502,7 +502,7 @@
         <v>0.2283141316188446</v>
       </c>
       <c r="L2">
-        <v>1.395398186597994</v>
+        <v>1.395398186597993</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -628,7 +628,7 @@
         <v>0.3547530149548966</v>
       </c>
       <c r="L5">
-        <v>1.349487609161879</v>
+        <v>1.349487609161878</v>
       </c>
       <c r="M5">
         <v>0.1079258910303903</v>
@@ -675,7 +675,7 @@
         <v>1.116576427935405</v>
       </c>
       <c r="M6">
-        <v>0.07096546849255199</v>
+        <v>0.07096546849255203</v>
       </c>
       <c r="N6">
         <v>0.5</v>
@@ -719,7 +719,7 @@
         <v>1.505344782772359</v>
       </c>
       <c r="M7">
-        <v>0.1326586967371083</v>
+        <v>0.1326586967371084</v>
       </c>
       <c r="N7">
         <v>0.5</v>
@@ -760,10 +760,10 @@
         <v>0.7861521020699123</v>
       </c>
       <c r="L8">
-        <v>1.80369103079492</v>
+        <v>1.803691030794919</v>
       </c>
       <c r="M8">
-        <v>0.7690263836043695</v>
+        <v>0.7690263836043686</v>
       </c>
       <c r="N8">
         <v>0.5</v>
@@ -807,7 +807,7 @@
         <v>1.853005858602734</v>
       </c>
       <c r="M9">
-        <v>0.8137281494015339</v>
+        <v>0.8137281494015342</v>
       </c>
       <c r="N9">
         <v>0.5</v>
@@ -848,10 +848,10 @@
         <v>0.4026021905683986</v>
       </c>
       <c r="L10">
-        <v>1.661821997489188</v>
+        <v>1.661821997489189</v>
       </c>
       <c r="M10">
-        <v>0.7002446014375034</v>
+        <v>0.7002446014375039</v>
       </c>
       <c r="N10">
         <v>0.5</v>
@@ -892,10 +892,10 @@
         <v>0.6007266640103373</v>
       </c>
       <c r="L11">
-        <v>1.829975567739134</v>
+        <v>1.829975567739133</v>
       </c>
       <c r="M11">
-        <v>0.9805426288682345</v>
+        <v>0.9805426288682342</v>
       </c>
       <c r="N11">
         <v>0.5</v>
@@ -980,7 +980,7 @@
         <v>0.6931636018115263</v>
       </c>
       <c r="L13">
-        <v>1.936564417680335</v>
+        <v>1.936564417680336</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -1115,7 +1115,7 @@
         <v>2.662091635925218</v>
       </c>
       <c r="M16">
-        <v>0.5674882439455801</v>
+        <v>0.5674882439455796</v>
       </c>
       <c r="N16">
         <v>0.5</v>
@@ -1156,10 +1156,10 @@
         <v>0.7128919335796409</v>
       </c>
       <c r="L17">
-        <v>2.651409503859372</v>
+        <v>2.651409503859371</v>
       </c>
       <c r="M17">
-        <v>0.5258489578296592</v>
+        <v>0.5258489578296583</v>
       </c>
       <c r="N17">
         <v>0.5</v>
@@ -1203,7 +1203,7 @@
         <v>2.813738958548455</v>
       </c>
       <c r="M18">
-        <v>0.612107903121335</v>
+        <v>0.6121079031213346</v>
       </c>
       <c r="N18">
         <v>0.5</v>
@@ -1247,7 +1247,7 @@
         <v>2.051047259003544</v>
       </c>
       <c r="M19">
-        <v>0.2068272859254718</v>
+        <v>0.2068272859254712</v>
       </c>
       <c r="N19">
         <v>0.5</v>
@@ -1288,7 +1288,7 @@
         <v>0.5252856932384387</v>
       </c>
       <c r="L20">
-        <v>1.044132931023998</v>
+        <v>1.044132931023999</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0.426294478704063</v>
       </c>
       <c r="L21">
-        <v>0.4702653576881508</v>
+        <v>0.4702653576881509</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0.3385440922507085</v>
       </c>
       <c r="L22">
-        <v>0.1233421836171697</v>
+        <v>0.1233421836171709</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1511,7 +1511,7 @@
         <v>-0.5302667398785598</v>
       </c>
       <c r="M25">
-        <v>0.2940056267894623</v>
+        <v>0.2940056267894622</v>
       </c>
       <c r="N25">
         <v>0.5</v>
@@ -1552,7 +1552,7 @@
         <v>-0.5661024219973195</v>
       </c>
       <c r="L26">
-        <v>-0.1094150311941194</v>
+        <v>-0.1094150311941195</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -1599,7 +1599,7 @@
         <v>0.1800434687207609</v>
       </c>
       <c r="M27">
-        <v>0.02107543602190027</v>
+        <v>0.02107543602189987</v>
       </c>
       <c r="N27">
         <v>0.5</v>
@@ -1640,10 +1640,10 @@
         <v>-0.4263616386594679</v>
       </c>
       <c r="L28">
-        <v>0.1400824323962655</v>
+        <v>0.1400824323962653</v>
       </c>
       <c r="M28">
-        <v>0.008684030038018401</v>
+        <v>0.008684030038017689</v>
       </c>
       <c r="N28">
         <v>0.5</v>
@@ -1687,7 +1687,7 @@
         <v>0.5865482682085635</v>
       </c>
       <c r="M29">
-        <v>0.5030524968847651</v>
+        <v>0.5030524968847637</v>
       </c>
       <c r="N29">
         <v>0.5</v>
@@ -1728,10 +1728,10 @@
         <v>-0.09129049782006433</v>
       </c>
       <c r="L30">
-        <v>0.4387483132288225</v>
+        <v>0.4387483132288224</v>
       </c>
       <c r="M30">
-        <v>0.6809196599606001</v>
+        <v>0.680919659960599</v>
       </c>
       <c r="N30">
         <v>0.5</v>
@@ -1772,10 +1772,10 @@
         <v>-0.2215144844190385</v>
       </c>
       <c r="L31">
-        <v>-0.3560205581181131</v>
+        <v>-0.3560205581181129</v>
       </c>
       <c r="M31">
-        <v>0.2727761605950009</v>
+        <v>0.2727761605950007</v>
       </c>
       <c r="N31">
         <v>0.5</v>
@@ -2127,7 +2127,7 @@
         <v>0.9163807299341613</v>
       </c>
       <c r="M39">
-        <v>0.07050257451600739</v>
+        <v>0.0705025745160074</v>
       </c>
       <c r="N39">
         <v>0.5</v>
@@ -2212,7 +2212,7 @@
         <v>-0.2428932476492354</v>
       </c>
       <c r="L41">
-        <v>0.828993805358742</v>
+        <v>0.8289938053587417</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>-0.2710169272725821</v>
       </c>
       <c r="L42">
-        <v>0.6610637956964449</v>
+        <v>0.6610637956964448</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -2303,7 +2303,7 @@
         <v>0.6897336427184138</v>
       </c>
       <c r="M43">
-        <v>0.004375496015481355</v>
+        <v>0.004375496015481372</v>
       </c>
       <c r="N43">
         <v>0.5</v>
@@ -2388,7 +2388,7 @@
         <v>-0.3134340958623615</v>
       </c>
       <c r="L45">
-        <v>0.3191942488027902</v>
+        <v>0.3191942488027903</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0.786301400821849</v>
       </c>
       <c r="L47">
-        <v>-0.8829181171849607</v>
+        <v>-0.8829181171849609</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -2520,10 +2520,10 @@
         <v>0.5904564424479172</v>
       </c>
       <c r="L48">
-        <v>0.9005228563484007</v>
+        <v>0.9005228563484009</v>
       </c>
       <c r="M48">
-        <v>0.8141125063952943</v>
+        <v>0.8141125063952945</v>
       </c>
       <c r="N48">
         <v>0.5</v>
@@ -2608,10 +2608,10 @@
         <v>0.6881771271736107</v>
       </c>
       <c r="L50">
-        <v>2.203811744983635</v>
+        <v>2.203811744983637</v>
       </c>
       <c r="M50">
-        <v>0.6958101501438507</v>
+        <v>0.6958101501438513</v>
       </c>
       <c r="N50">
         <v>0.5</v>
@@ -2649,13 +2649,13 @@
         <v>0.02129817174058887</v>
       </c>
       <c r="K51">
-        <v>0.7128709996492341</v>
+        <v>0.7128709996492342</v>
       </c>
       <c r="L51">
         <v>2.570439502824817</v>
       </c>
       <c r="M51">
-        <v>0.8311709412578779</v>
+        <v>0.831170941257878</v>
       </c>
       <c r="N51">
         <v>0.5</v>
@@ -2743,7 +2743,7 @@
         <v>2.546791662346729</v>
       </c>
       <c r="M53">
-        <v>0.8224400409733473</v>
+        <v>0.8224400409733476</v>
       </c>
       <c r="N53">
         <v>0.5</v>
@@ -2781,13 +2781,13 @@
         <v>0.01279720198432876</v>
       </c>
       <c r="K54">
-        <v>0.6712439496982768</v>
+        <v>0.6712439496982771</v>
       </c>
       <c r="L54">
-        <v>2.031416336152553</v>
+        <v>2.031416336152554</v>
       </c>
       <c r="M54">
-        <v>0.6321609080318827</v>
+        <v>0.632160908031883</v>
       </c>
       <c r="N54">
         <v>0.5</v>
@@ -2825,7 +2825,7 @@
         <v>0.03093476726607532</v>
       </c>
       <c r="K55">
-        <v>0.6927370820877703</v>
+        <v>0.6927370820877702</v>
       </c>
       <c r="L55">
         <v>2.541128490145632</v>
@@ -2875,7 +2875,7 @@
         <v>1.656371134255701</v>
       </c>
       <c r="M56">
-        <v>0.355326449400861</v>
+        <v>0.3553264494008612</v>
       </c>
       <c r="N56">
         <v>0.5</v>
@@ -2916,7 +2916,7 @@
         <v>0.7546746792574978</v>
       </c>
       <c r="L57">
-        <v>3.805753499537695</v>
+        <v>3.805753499537697</v>
       </c>
       <c r="M57">
         <v>1</v>
@@ -2960,10 +2960,10 @@
         <v>0.7062650289566202</v>
       </c>
       <c r="L58">
-        <v>3.197926161008501</v>
+        <v>3.197926161008502</v>
       </c>
       <c r="M58">
-        <v>0.7172083718806128</v>
+        <v>0.7172083718806129</v>
       </c>
       <c r="N58">
         <v>0.5</v>
@@ -3095,7 +3095,7 @@
         <v>1.014094904999014</v>
       </c>
       <c r="M61">
-        <v>0.1488432962229393</v>
+        <v>0.1488432962229392</v>
       </c>
       <c r="N61">
         <v>0.5</v>
@@ -3180,10 +3180,10 @@
         <v>0.2343043683457711</v>
       </c>
       <c r="L63">
-        <v>1.490099269405608</v>
+        <v>1.490099269405609</v>
       </c>
       <c r="M63">
-        <v>0.2939736164506398</v>
+        <v>0.2939736164506399</v>
       </c>
       <c r="N63">
         <v>0.5</v>
@@ -3312,7 +3312,7 @@
         <v>0.1829842224654614</v>
       </c>
       <c r="L66">
-        <v>2.926885079365021</v>
+        <v>2.926885079365022</v>
       </c>
       <c r="M66">
         <v>0.7320393156128241</v>
@@ -3356,7 +3356,7 @@
         <v>0.1269994345562737</v>
       </c>
       <c r="L67">
-        <v>4.647228667941808</v>
+        <v>4.647228667941809</v>
       </c>
       <c r="M67">
         <v>1</v>
@@ -3400,7 +3400,7 @@
         <v>0.2231116122705932</v>
       </c>
       <c r="L68">
-        <v>5.305582091861283</v>
+        <v>5.305582091861284</v>
       </c>
       <c r="M68">
         <v>1</v>
@@ -3447,7 +3447,7 @@
         <v>1.437199557670808</v>
       </c>
       <c r="M69">
-        <v>0.1906589950499848</v>
+        <v>0.1906589950499849</v>
       </c>
       <c r="N69">
         <v>0.5</v>
@@ -3488,7 +3488,7 @@
         <v>0.9453909309778017</v>
       </c>
       <c r="L70">
-        <v>7.464376543096365</v>
+        <v>7.464376543096364</v>
       </c>
       <c r="M70">
         <v>1</v>
@@ -3532,7 +3532,7 @@
         <v>0.9514072493685634</v>
       </c>
       <c r="L71">
-        <v>3.193571297326082</v>
+        <v>3.193571297326081</v>
       </c>
       <c r="M71">
         <v>0.3097156935157864</v>
@@ -3579,7 +3579,7 @@
         <v>2.487463794841769</v>
       </c>
       <c r="M72">
-        <v>0.1742547530478411</v>
+        <v>0.1742547530478409</v>
       </c>
       <c r="N72">
         <v>0.5</v>
@@ -3620,10 +3620,10 @@
         <v>0.9640703071030241</v>
       </c>
       <c r="L73">
-        <v>2.326360392170808</v>
+        <v>2.326360392170807</v>
       </c>
       <c r="M73">
-        <v>0.1475252571228783</v>
+        <v>0.1475252571228782</v>
       </c>
       <c r="N73">
         <v>0.5</v>
@@ -3711,7 +3711,7 @@
         <v>1.806124852680491</v>
       </c>
       <c r="M75">
-        <v>0.0980122239963381</v>
+        <v>0.09801222399633822</v>
       </c>
       <c r="N75">
         <v>0.5</v>
@@ -3752,7 +3752,7 @@
         <v>0.350408430112762</v>
       </c>
       <c r="L76">
-        <v>2.105522298147885</v>
+        <v>2.105522298147884</v>
       </c>
       <c r="M76">
         <v>0.1457394815935455</v>
@@ -3796,10 +3796,10 @@
         <v>0.3539859123513239</v>
       </c>
       <c r="L77">
-        <v>2.25396660399033</v>
+        <v>2.253966603990331</v>
       </c>
       <c r="M77">
-        <v>0.1694031424932594</v>
+        <v>0.1694031424932596</v>
       </c>
       <c r="N77">
         <v>0.5</v>
@@ -3843,7 +3843,7 @@
         <v>2.01880198858078</v>
       </c>
       <c r="M78">
-        <v>0.1319153070179827</v>
+        <v>0.1319153070179828</v>
       </c>
       <c r="N78">
         <v>0.5</v>
@@ -3928,10 +3928,10 @@
         <v>0.3249616573279528</v>
       </c>
       <c r="L80">
-        <v>1.605649178187388</v>
+        <v>1.605649178187387</v>
       </c>
       <c r="M80">
-        <v>0.2069454321243918</v>
+        <v>0.2069454321243919</v>
       </c>
       <c r="N80">
         <v>0.5</v>
@@ -3972,10 +3972,10 @@
         <v>0.2835817526361117</v>
       </c>
       <c r="L81">
-        <v>1.905136783790331</v>
+        <v>1.90513678379033</v>
       </c>
       <c r="M81">
-        <v>0.5507355060957642</v>
+        <v>0.5507355060957635</v>
       </c>
       <c r="N81">
         <v>0.5</v>
@@ -4060,7 +4060,7 @@
         <v>0.3320577359762784</v>
       </c>
       <c r="L83">
-        <v>6.379442967433821</v>
+        <v>6.379442967433822</v>
       </c>
       <c r="M83">
         <v>1</v>
@@ -4104,7 +4104,7 @@
         <v>0.9939978291570583</v>
       </c>
       <c r="L84">
-        <v>4.390039552283709</v>
+        <v>4.39003955228371</v>
       </c>
       <c r="M84">
         <v>0.5832657414671972</v>
@@ -4148,10 +4148,10 @@
         <v>0.9823491656957443</v>
       </c>
       <c r="L85">
-        <v>2.373286423770129</v>
+        <v>2.373286423770128</v>
       </c>
       <c r="M85">
-        <v>0.1608023470372641</v>
+        <v>0.160802347037264</v>
       </c>
       <c r="N85">
         <v>0.5</v>
@@ -4195,7 +4195,7 @@
         <v>1.840531279964732</v>
       </c>
       <c r="M86">
-        <v>0.04920239795578209</v>
+        <v>0.04920239795578221</v>
       </c>
       <c r="N86">
         <v>0.5</v>
@@ -4239,7 +4239,7 @@
         <v>2.033968521636408</v>
       </c>
       <c r="M87">
-        <v>0.08972305096501304</v>
+        <v>0.08972305096501305</v>
       </c>
       <c r="N87">
         <v>0.5</v>
@@ -4283,7 +4283,7 @@
         <v>2.577440923372726</v>
       </c>
       <c r="M88">
-        <v>0.2035680190825211</v>
+        <v>0.203568019082521</v>
       </c>
       <c r="N88">
         <v>0.5</v>
@@ -4324,10 +4324,10 @@
         <v>0.5598117862944728</v>
       </c>
       <c r="L89">
-        <v>2.587659077650635</v>
+        <v>2.587659077650636</v>
       </c>
       <c r="M89">
-        <v>0.2057084873827913</v>
+        <v>0.2057084873827915</v>
       </c>
       <c r="N89">
         <v>0.5</v>
@@ -4368,10 +4368,10 @@
         <v>0.5618002822216406</v>
       </c>
       <c r="L90">
-        <v>3.110526712463373</v>
+        <v>3.110526712463374</v>
       </c>
       <c r="M90">
-        <v>0.2798017498346162</v>
+        <v>0.2798017498346161</v>
       </c>
       <c r="N90">
         <v>0.5</v>
@@ -4415,7 +4415,7 @@
         <v>3.097208563669653</v>
       </c>
       <c r="M91">
-        <v>0.2768675335046338</v>
+        <v>0.2768675335046336</v>
       </c>
       <c r="N91">
         <v>0.5</v>
@@ -4459,7 +4459,7 @@
         <v>2.429753700872817</v>
       </c>
       <c r="M92">
-        <v>0.1298157931855768</v>
+        <v>0.1298157931855767</v>
       </c>
       <c r="N92">
         <v>0.5</v>
@@ -4503,7 +4503,7 @@
         <v>3.312540893606427</v>
       </c>
       <c r="M93">
-        <v>0.5773700088067522</v>
+        <v>0.5773700088067519</v>
       </c>
       <c r="N93">
         <v>0.5</v>
@@ -4632,7 +4632,7 @@
         <v>0.6011653661137614</v>
       </c>
       <c r="L96">
-        <v>5.149477846981249</v>
+        <v>5.149477846981247</v>
       </c>
       <c r="M96">
         <v>1</v>
@@ -4720,7 +4720,7 @@
         <v>-0.2976967431132351</v>
       </c>
       <c r="L98">
-        <v>6.726199056634853</v>
+        <v>6.72619905663485</v>
       </c>
       <c r="M98">
         <v>1</v>
@@ -4764,7 +4764,7 @@
         <v>-0.4669312534196532</v>
       </c>
       <c r="L99">
-        <v>0.07481817018144231</v>
+        <v>0.07481817018144254</v>
       </c>
       <c r="M99">
         <v>0</v>
@@ -4899,7 +4899,7 @@
         <v>-1.457744264578273</v>
       </c>
       <c r="M102">
-        <v>0.3529695301459192</v>
+        <v>0.3529695301459191</v>
       </c>
       <c r="N102">
         <v>0.5</v>
@@ -4943,7 +4943,7 @@
         <v>-1.286712879721792</v>
       </c>
       <c r="M103">
-        <v>0.172561661953903</v>
+        <v>0.1725616619539032</v>
       </c>
       <c r="N103">
         <v>0.5</v>
@@ -4984,7 +4984,7 @@
         <v>-0.6718319295185277</v>
       </c>
       <c r="L104">
-        <v>-0.8877144889780326</v>
+        <v>-0.8877144889780324</v>
       </c>
       <c r="M104">
         <v>0</v>
@@ -5072,10 +5072,10 @@
         <v>-0.6685242144092595</v>
       </c>
       <c r="L106">
-        <v>-1.412252025231917</v>
+        <v>-1.412252025231916</v>
       </c>
       <c r="M106">
-        <v>0.4432343464432452</v>
+        <v>0.4432343464432449</v>
       </c>
       <c r="N106">
         <v>0.5</v>
@@ -5207,7 +5207,7 @@
         <v>-2.019579194931064</v>
       </c>
       <c r="M109">
-        <v>0.7871724726413195</v>
+        <v>0.7871724726413196</v>
       </c>
       <c r="N109">
         <v>0.5</v>
@@ -5248,10 +5248,10 @@
         <v>-0.1455293572048316</v>
       </c>
       <c r="L110">
-        <v>-0.9823021503684101</v>
+        <v>-0.982302150368411</v>
       </c>
       <c r="M110">
-        <v>0.06578242338189227</v>
+        <v>0.06578242338189301</v>
       </c>
       <c r="N110">
         <v>0.5</v>
@@ -5292,7 +5292,7 @@
         <v>0.9459798834055586</v>
       </c>
       <c r="L111">
-        <v>0.1001578084029913</v>
+        <v>0.1001578084029917</v>
       </c>
       <c r="M111">
         <v>1</v>
@@ -5383,7 +5383,7 @@
         <v>1.511125855083765</v>
       </c>
       <c r="M113">
-        <v>0.6340534880367866</v>
+        <v>0.6340534880367865</v>
       </c>
       <c r="N113">
         <v>0.5</v>
@@ -5427,7 +5427,7 @@
         <v>1.446030215182387</v>
       </c>
       <c r="M114">
-        <v>0.6048011476790082</v>
+        <v>0.6048011476790081</v>
       </c>
       <c r="N114">
         <v>0.5</v>
@@ -5468,10 +5468,10 @@
         <v>-0.08881100969425887</v>
       </c>
       <c r="L115">
-        <v>0.4187993433477791</v>
+        <v>0.4187993433477792</v>
       </c>
       <c r="M115">
-        <v>0.1431894769980203</v>
+        <v>0.1431894769980202</v>
       </c>
       <c r="N115">
         <v>0.5</v>
@@ -5512,7 +5512,7 @@
         <v>-0.4825208454561785</v>
       </c>
       <c r="L116">
-        <v>-0.4044080525925316</v>
+        <v>-0.4044080525925317</v>
       </c>
       <c r="M116">
         <v>0</v>
@@ -5556,10 +5556,10 @@
         <v>-0.5265963415763681</v>
       </c>
       <c r="L117">
-        <v>-0.4535126697284267</v>
+        <v>-0.4535126697284265</v>
       </c>
       <c r="M117">
-        <v>0.02555944022585939</v>
+        <v>0.02555944022585927</v>
       </c>
       <c r="N117">
         <v>0.5</v>
@@ -5603,7 +5603,7 @@
         <v>-0.5830472217207779</v>
       </c>
       <c r="M118">
-        <v>0.1106007682068929</v>
+        <v>0.1106007682068928</v>
       </c>
       <c r="N118">
         <v>0.5</v>
@@ -5732,7 +5732,7 @@
         <v>-0.8153362537615653</v>
       </c>
       <c r="L121">
-        <v>-1.512423500657577</v>
+        <v>-1.512423500657578</v>
       </c>
       <c r="M121">
         <v>1</v>
@@ -5823,7 +5823,7 @@
         <v>-1.736608815560297</v>
       </c>
       <c r="M123">
-        <v>0.9622308223474966</v>
+        <v>0.9622308223474968</v>
       </c>
       <c r="N123">
         <v>0.5</v>
@@ -5911,7 +5911,7 @@
         <v>-1.188370185512539</v>
       </c>
       <c r="M125">
-        <v>0.4773277342028702</v>
+        <v>0.4773277342028701</v>
       </c>
       <c r="N125">
         <v>0.5</v>
@@ -5952,7 +5952,7 @@
         <v>-0.3206111078902942</v>
       </c>
       <c r="L126">
-        <v>0.3860019024695265</v>
+        <v>0.3860019024695264</v>
       </c>
       <c r="M126">
         <v>1</v>
@@ -5996,7 +5996,7 @@
         <v>-0.3779993887977899</v>
       </c>
       <c r="L127">
-        <v>-0.318213575434444</v>
+        <v>-0.3182135754344436</v>
       </c>
       <c r="M127">
         <v>0</v>
@@ -6040,7 +6040,7 @@
         <v>-0.4068729009359636</v>
       </c>
       <c r="L128">
-        <v>-0.2805382098026397</v>
+        <v>-0.2805382098026393</v>
       </c>
       <c r="M128">
         <v>0</v>
@@ -6128,7 +6128,7 @@
         <v>-0.05675387802568291</v>
       </c>
       <c r="L130">
-        <v>-0.1042955380676069</v>
+        <v>-0.104295538067607</v>
       </c>
       <c r="M130">
         <v>0</v>
@@ -6172,10 +6172,10 @@
         <v>-0.1685859128166116</v>
       </c>
       <c r="L131">
-        <v>-0.6000904239073038</v>
+        <v>-0.6000904239073039</v>
       </c>
       <c r="M131">
-        <v>0.2552340762558075</v>
+        <v>0.2552340762558074</v>
       </c>
       <c r="N131">
         <v>0.5</v>
@@ -6216,10 +6216,10 @@
         <v>-0.148895529222016</v>
       </c>
       <c r="L132">
-        <v>-0.2132616401853354</v>
+        <v>-0.2132616401853351</v>
       </c>
       <c r="M132">
-        <v>0.05609550080394878</v>
+        <v>0.05609550080394856</v>
       </c>
       <c r="N132">
         <v>0.5</v>
@@ -6260,10 +6260,10 @@
         <v>-0.112610762394238</v>
       </c>
       <c r="L133">
-        <v>-0.2942551272873373</v>
+        <v>-0.2942551272873377</v>
       </c>
       <c r="M133">
-        <v>0.09779076320707894</v>
+        <v>0.09779076320707904</v>
       </c>
       <c r="N133">
         <v>0.5</v>
@@ -6304,7 +6304,7 @@
         <v>0.4572890630977967</v>
       </c>
       <c r="L134">
-        <v>-1.933518633460897</v>
+        <v>-1.933518633460898</v>
       </c>
       <c r="M134">
         <v>1</v>
@@ -6348,7 +6348,7 @@
         <v>0.2497541941568537</v>
       </c>
       <c r="L135">
-        <v>0.8771615350176249</v>
+        <v>0.8771615350176252</v>
       </c>
       <c r="M135">
         <v>1</v>
@@ -6439,7 +6439,7 @@
         <v>1.554986135008366</v>
       </c>
       <c r="M137">
-        <v>0.9005009612190218</v>
+        <v>0.9005009612190222</v>
       </c>
       <c r="N137">
         <v>0.5</v>
@@ -6480,10 +6480,10 @@
         <v>0.639498672262213</v>
       </c>
       <c r="L138">
-        <v>1.322132838431736</v>
+        <v>1.322132838431737</v>
       </c>
       <c r="M138">
-        <v>0.7649818340147154</v>
+        <v>0.7649818340147159</v>
       </c>
       <c r="N138">
         <v>0.5</v>
@@ -6524,10 +6524,10 @@
         <v>0.6592215437097638</v>
       </c>
       <c r="L139">
-        <v>0.9139792475742837</v>
+        <v>0.9139792475742835</v>
       </c>
       <c r="M139">
-        <v>0.0433768557854847</v>
+        <v>0.04337685578548421</v>
       </c>
       <c r="N139">
         <v>0.5</v>
@@ -6571,7 +6571,7 @@
         <v>0.8914274194804916</v>
       </c>
       <c r="M140">
-        <v>0.01680737802615711</v>
+        <v>0.01680737802615686</v>
       </c>
       <c r="N140">
         <v>0.5</v>
@@ -6656,10 +6656,10 @@
         <v>1</v>
       </c>
       <c r="L142">
-        <v>1.894247765626316</v>
+        <v>1.894247765626317</v>
       </c>
       <c r="M142">
-        <v>0.682844176433771</v>
+        <v>0.6828441764337714</v>
       </c>
       <c r="N142">
         <v>0.5</v>
@@ -6700,10 +6700,10 @@
         <v>0.3197249497755041</v>
       </c>
       <c r="L143">
-        <v>1.880298040376952</v>
+        <v>1.880298040376953</v>
       </c>
       <c r="M143">
-        <v>0.6734787083321347</v>
+        <v>0.6734787083321349</v>
       </c>
       <c r="N143">
         <v>0.5</v>
@@ -6788,10 +6788,10 @@
         <v>0.3446249493919571</v>
       </c>
       <c r="L145">
-        <v>3.375871554920435</v>
+        <v>3.375871554920436</v>
       </c>
       <c r="M145">
-        <v>0.8724212387260052</v>
+        <v>0.8724212387260054</v>
       </c>
       <c r="N145">
         <v>0.5</v>
@@ -6832,10 +6832,10 @@
         <v>0.1679075216001481</v>
       </c>
       <c r="L146">
-        <v>2.709722926029456</v>
+        <v>2.709722926029457</v>
       </c>
       <c r="M146">
-        <v>0.6385008201894916</v>
+        <v>0.6385008201894919</v>
       </c>
       <c r="N146">
         <v>0.5</v>
@@ -6923,7 +6923,7 @@
         <v>1.0316178198322</v>
       </c>
       <c r="M148">
-        <v>0.04922834890416017</v>
+        <v>0.04922834890416009</v>
       </c>
       <c r="N148">
         <v>0.5</v>
@@ -6967,7 +6967,7 @@
         <v>1.059422667724933</v>
       </c>
       <c r="M149">
-        <v>0.05899211839091929</v>
+        <v>0.05899211839091913</v>
       </c>
       <c r="N149">
         <v>0.5</v>
@@ -7008,7 +7008,7 @@
         <v>-0.1330200320356999</v>
       </c>
       <c r="L150">
-        <v>0.4838596029655152</v>
+        <v>0.4838596029655151</v>
       </c>
       <c r="M150">
         <v>0</v>
@@ -7052,7 +7052,7 @@
         <v>-0.1986235364434522</v>
       </c>
       <c r="L151">
-        <v>0.3188157155284717</v>
+        <v>0.3188157155284719</v>
       </c>
       <c r="M151">
         <v>0</v>
@@ -7096,7 +7096,7 @@
         <v>-0.122167459149575</v>
       </c>
       <c r="L152">
-        <v>0.8043609932739169</v>
+        <v>0.8043609932739171</v>
       </c>
       <c r="M152">
         <v>0.1419569780964869</v>
@@ -7143,7 +7143,7 @@
         <v>0.369559413808109</v>
       </c>
       <c r="M153">
-        <v>0.01483573704735673</v>
+        <v>0.01483573704735668</v>
       </c>
       <c r="N153">
         <v>0.5</v>
@@ -7228,7 +7228,7 @@
         <v>0.1133309740084522</v>
       </c>
       <c r="L155">
-        <v>-0.1178062162629388</v>
+        <v>-0.1178062162629389</v>
       </c>
       <c r="M155">
         <v>1</v>
@@ -7272,10 +7272,10 @@
         <v>0.4198283166454039</v>
       </c>
       <c r="L156">
-        <v>0.293422242219963</v>
+        <v>0.2934222422199629</v>
       </c>
       <c r="M156">
-        <v>0.09879757397643199</v>
+        <v>0.09879757397643196</v>
       </c>
       <c r="N156">
         <v>0.5</v>
@@ -7316,10 +7316,10 @@
         <v>0.4684407226468432</v>
       </c>
       <c r="L157">
-        <v>0.4681330270335657</v>
+        <v>0.4681330270335656</v>
       </c>
       <c r="M157">
-        <v>0.367426205563373</v>
+        <v>0.3674262055633731</v>
       </c>
       <c r="N157">
         <v>0.5</v>
@@ -7363,7 +7363,7 @@
         <v>0.8227336172206884</v>
       </c>
       <c r="M158">
-        <v>0.7467851954855693</v>
+        <v>0.7467851954855698</v>
       </c>
       <c r="N158">
         <v>0.5</v>
@@ -7404,10 +7404,10 @@
         <v>0.6224729876463481</v>
       </c>
       <c r="L159">
-        <v>0.6801705586593583</v>
+        <v>0.6801705586593582</v>
       </c>
       <c r="M159">
-        <v>0.7957687334677026</v>
+        <v>0.7957687334677023</v>
       </c>
       <c r="N159">
         <v>0.5</v>
@@ -7580,7 +7580,7 @@
         <v>0.8477994214565991</v>
       </c>
       <c r="L163">
-        <v>2.615718515631254</v>
+        <v>2.615718515631255</v>
       </c>
       <c r="M163">
         <v>1</v>
@@ -7624,10 +7624,10 @@
         <v>0.889909548346461</v>
       </c>
       <c r="L164">
-        <v>1.694081143961852</v>
+        <v>1.694081143961851</v>
       </c>
       <c r="M164">
-        <v>0.6031353181669705</v>
+        <v>0.6031353181669702</v>
       </c>
       <c r="N164">
         <v>0.5</v>
@@ -7715,7 +7715,7 @@
         <v>0.6384941660368101</v>
       </c>
       <c r="M166">
-        <v>0.06418755537902303</v>
+        <v>0.06418755537902306</v>
       </c>
       <c r="N166">
         <v>0.5</v>
@@ -7888,7 +7888,7 @@
         <v>0.3973648830339703</v>
       </c>
       <c r="L170">
-        <v>0.09032637189771626</v>
+        <v>0.09032637189771571</v>
       </c>
       <c r="M170">
         <v>0</v>
@@ -7935,7 +7935,7 @@
         <v>1.089646757454622</v>
       </c>
       <c r="M171">
-        <v>0.3295996974507001</v>
+        <v>0.3295996974507002</v>
       </c>
       <c r="N171">
         <v>0.5</v>
@@ -7976,7 +7976,7 @@
         <v>-0.4168277473481345</v>
       </c>
       <c r="L172">
-        <v>-0.9614295394369625</v>
+        <v>-0.9614295394369622</v>
       </c>
       <c r="M172">
         <v>1</v>
@@ -8020,7 +8020,7 @@
         <v>-0.3897812190522862</v>
       </c>
       <c r="L173">
-        <v>-0.02865536554831866</v>
+        <v>-0.02865536554831871</v>
       </c>
       <c r="M173">
         <v>0</v>
@@ -8064,10 +8064,10 @@
         <v>-0.4809385636802914</v>
       </c>
       <c r="L174">
-        <v>0.38843510426488</v>
+        <v>0.3884351042648802</v>
       </c>
       <c r="M174">
-        <v>0.09832336997795958</v>
+        <v>0.09832336997795982</v>
       </c>
       <c r="N174">
         <v>0.5</v>
@@ -8111,7 +8111,7 @@
         <v>0.4958716163327008</v>
       </c>
       <c r="M175">
-        <v>0.4058210462793474</v>
+        <v>0.4058210462793477</v>
       </c>
       <c r="N175">
         <v>0.5</v>
@@ -8152,10 +8152,10 @@
         <v>-0.4727435937519614</v>
       </c>
       <c r="L176">
-        <v>0.647797271877011</v>
+        <v>0.6477972718770109</v>
       </c>
       <c r="M176">
-        <v>0.5578500229119459</v>
+        <v>0.557850022911946</v>
       </c>
       <c r="N176">
         <v>0.5</v>
@@ -8196,10 +8196,10 @@
         <v>-0.4504630412800477</v>
       </c>
       <c r="L177">
-        <v>0.5757773562787319</v>
+        <v>0.5757773562787321</v>
       </c>
       <c r="M177">
-        <v>0.4857811282519581</v>
+        <v>0.4857811282519585</v>
       </c>
       <c r="N177">
         <v>0.5</v>
@@ -8240,7 +8240,7 @@
         <v>-0.4719095855389292</v>
       </c>
       <c r="L178">
-        <v>0.04775494994260114</v>
+        <v>0.04775494994260111</v>
       </c>
       <c r="M178">
         <v>0</v>
@@ -8284,10 +8284,10 @@
         <v>-0.4762410793880809</v>
       </c>
       <c r="L179">
-        <v>-0.5385807859383305</v>
+        <v>-0.5385807859383303</v>
       </c>
       <c r="M179">
-        <v>0.5466761780766108</v>
+        <v>0.5466761780766107</v>
       </c>
       <c r="N179">
         <v>0.5</v>
@@ -8328,7 +8328,7 @@
         <v>-0.4322947666109478</v>
       </c>
       <c r="L180">
-        <v>-0.8561283020581543</v>
+        <v>-0.856128302058154</v>
       </c>
       <c r="M180">
         <v>0.887109613101939</v>
@@ -8504,7 +8504,7 @@
         <v>0.2200614117642655</v>
       </c>
       <c r="L184">
-        <v>-0.1144926851141512</v>
+        <v>-0.114492685114151</v>
       </c>
       <c r="M184">
         <v>0</v>
@@ -8551,7 +8551,7 @@
         <v>0.4902256890779321</v>
       </c>
       <c r="M185">
-        <v>0.3162703941046313</v>
+        <v>0.3162703941046314</v>
       </c>
       <c r="N185">
         <v>0.5</v>
@@ -8636,10 +8636,10 @@
         <v>0.1304660894087488</v>
       </c>
       <c r="L187">
-        <v>0.2902123315221596</v>
+        <v>0.2902123315221594</v>
       </c>
       <c r="M187">
-        <v>0.1733043223956342</v>
+        <v>0.173304322395634</v>
       </c>
       <c r="N187">
         <v>0.5</v>
@@ -8680,10 +8680,10 @@
         <v>0.2519179329153996</v>
       </c>
       <c r="L188">
-        <v>0.4037084895191458</v>
+        <v>0.4037084895191457</v>
       </c>
       <c r="M188">
-        <v>0.1398862333180232</v>
+        <v>0.1398862333180231</v>
       </c>
       <c r="N188">
         <v>0.5</v>
@@ -8718,7 +8718,7 @@
         <v>47</v>
       </c>
       <c r="J189">
-        <v>-0.0230607912042827</v>
+        <v>-0.02306079120428271</v>
       </c>
       <c r="K189">
         <v>-0.1273929403286155</v>
@@ -8727,7 +8727,7 @@
         <v>-0.3393860652492044</v>
       </c>
       <c r="M189">
-        <v>0.05719310183179847</v>
+        <v>0.05719310183179852</v>
       </c>
       <c r="N189">
         <v>0.5</v>
@@ -8765,7 +8765,7 @@
         <v>-0.0001615213267888142</v>
       </c>
       <c r="K190">
-        <v>-0.3152715127858523</v>
+        <v>-0.3152715127858524</v>
       </c>
       <c r="L190">
         <v>-0.5634684811711617</v>
@@ -8809,10 +8809,10 @@
         <v>0.01077072408485888</v>
       </c>
       <c r="K191">
-        <v>-0.3327560129109504</v>
+        <v>-0.3327560129109505</v>
       </c>
       <c r="L191">
-        <v>-0.7413002514493395</v>
+        <v>-0.7413002514493394</v>
       </c>
       <c r="M191">
         <v>1</v>
@@ -8853,10 +8853,10 @@
         <v>-0.002840042017924985</v>
       </c>
       <c r="K192">
-        <v>-0.2338734302839554</v>
+        <v>-0.2338734302839555</v>
       </c>
       <c r="L192">
-        <v>-0.1083672701552423</v>
+        <v>-0.1083672701552426</v>
       </c>
       <c r="M192">
         <v>0</v>
@@ -8897,10 +8897,10 @@
         <v>-0.02362178798511426</v>
       </c>
       <c r="K193">
-        <v>-0.1250199718110458</v>
+        <v>-0.125019971811046</v>
       </c>
       <c r="L193">
-        <v>-0.0621422733463849</v>
+        <v>-0.06214227334638481</v>
       </c>
       <c r="M193">
         <v>0</v>
@@ -8944,7 +8944,7 @@
         <v>-0.3726723274030961</v>
       </c>
       <c r="L194">
-        <v>-0.6174191801582267</v>
+        <v>-0.6174191801582266</v>
       </c>
       <c r="M194">
         <v>0.8175960891497714</v>
@@ -9026,7 +9026,7 @@
         <v>1</v>
       </c>
       <c r="J196">
-        <v>9.171366998676055e-05</v>
+        <v>9.171366998676055E-05</v>
       </c>
       <c r="K196">
         <v>-0.819109872407304</v>
@@ -9035,7 +9035,7 @@
         <v>-1.316997304314694</v>
       </c>
       <c r="M196">
-        <v>0.9685236447969476</v>
+        <v>0.9685236447969475</v>
       </c>
       <c r="N196">
         <v>0.5</v>
@@ -9073,7 +9073,7 @@
         <v>-0.01983402228472305</v>
       </c>
       <c r="K197">
-        <v>-0.9022651538267751</v>
+        <v>-0.902265153826775</v>
       </c>
       <c r="L197">
         <v>-2.033472931010698</v>
@@ -9123,7 +9123,7 @@
         <v>-1.78372573945939</v>
       </c>
       <c r="M198">
-        <v>0.873310349747609</v>
+        <v>0.8733103497476088</v>
       </c>
       <c r="N198">
         <v>0.5</v>
@@ -9164,7 +9164,7 @@
         <v>-0.972374586656814</v>
       </c>
       <c r="L199">
-        <v>0.04989492323180118</v>
+        <v>0.04989492323180099</v>
       </c>
       <c r="M199">
         <v>1</v>
@@ -9208,7 +9208,7 @@
         <v>-0.9706128989678046</v>
       </c>
       <c r="L200">
-        <v>0.2422303029646916</v>
+        <v>0.2422303029646914</v>
       </c>
       <c r="M200">
         <v>1</v>
@@ -9252,10 +9252,10 @@
         <v>-0.9225409138424279</v>
       </c>
       <c r="L201">
-        <v>-0.1276610255155431</v>
+        <v>-0.1276610255155429</v>
       </c>
       <c r="M201">
-        <v>0.03323580035364877</v>
+        <v>0.03323580035364871</v>
       </c>
       <c r="N201">
         <v>0.5</v>
@@ -9296,10 +9296,10 @@
         <v>-0.8297500896777846</v>
       </c>
       <c r="L202">
-        <v>-0.5171819832339675</v>
+        <v>-0.517181983233967</v>
       </c>
       <c r="M202">
-        <v>0.2308287085773455</v>
+        <v>0.2308287085773453</v>
       </c>
       <c r="N202">
         <v>0.5</v>
@@ -9343,7 +9343,7 @@
         <v>-0.527110338653472</v>
       </c>
       <c r="M203">
-        <v>0.2095953498801062</v>
+        <v>0.2095953498801063</v>
       </c>
       <c r="N203">
         <v>0.5</v>
@@ -9384,10 +9384,10 @@
         <v>-0.5909356237413113</v>
       </c>
       <c r="L204">
-        <v>-0.2611184669863993</v>
+        <v>-0.2611184669863994</v>
       </c>
       <c r="M204">
-        <v>0.07002655460701521</v>
+        <v>0.07002655460701537</v>
       </c>
       <c r="N204">
         <v>0.5</v>
@@ -9428,10 +9428,10 @@
         <v>-0.6118639471450403</v>
       </c>
       <c r="L205">
-        <v>-0.7825538705817179</v>
+        <v>-0.7825538705817181</v>
       </c>
       <c r="M205">
-        <v>0.3436293178659858</v>
+        <v>0.3436293178659861</v>
       </c>
       <c r="N205">
         <v>0.5</v>
@@ -9472,10 +9472,10 @@
         <v>-0.5752697384038086</v>
       </c>
       <c r="L206">
-        <v>-0.3904985286017046</v>
+        <v>-0.3904985286017048</v>
       </c>
       <c r="M206">
-        <v>0.137913664159776</v>
+        <v>0.1379136641597762</v>
       </c>
       <c r="N206">
         <v>0.5</v>
@@ -9516,10 +9516,10 @@
         <v>-0.566157122542186</v>
       </c>
       <c r="L207">
-        <v>-0.1773945357500783</v>
+        <v>-0.1773945357500784</v>
       </c>
       <c r="M207">
-        <v>0.03003113937262569</v>
+        <v>0.03003113937262591</v>
       </c>
       <c r="N207">
         <v>0.5</v>
@@ -9560,10 +9560,10 @@
         <v>-0.5484143452764346</v>
       </c>
       <c r="L208">
-        <v>-0.2115007542038683</v>
+        <v>-0.2115007542038685</v>
       </c>
       <c r="M208">
-        <v>0.1280205293430156</v>
+        <v>0.1280205293430161</v>
       </c>
       <c r="N208">
         <v>0.5</v>
@@ -9692,10 +9692,10 @@
         <v>-0.2622943224437615</v>
       </c>
       <c r="L211">
-        <v>-1.963049193589134</v>
+        <v>-1.963049193589135</v>
       </c>
       <c r="M211">
-        <v>0.9368388298950184</v>
+        <v>0.9368388298950188</v>
       </c>
       <c r="N211">
         <v>0.5</v>
@@ -9730,16 +9730,16 @@
         <v>0</v>
       </c>
       <c r="J212">
-        <v>0.03568793637389558</v>
+        <v>0.03568793637389559</v>
       </c>
       <c r="K212">
         <v>-0.3974233526625079</v>
       </c>
       <c r="L212">
-        <v>-1.245381274394186</v>
+        <v>-1.245381274394187</v>
       </c>
       <c r="M212">
-        <v>0.5603163199459605</v>
+        <v>0.5603163199459607</v>
       </c>
       <c r="N212">
         <v>0.5</v>
@@ -9777,10 +9777,10 @@
         <v>-0.01266428233516238</v>
       </c>
       <c r="K213">
-        <v>-0.4086645639160044</v>
+        <v>-0.4086645639160043</v>
       </c>
       <c r="L213">
-        <v>0.04635906906887569</v>
+        <v>0.04635906906887578</v>
       </c>
       <c r="M213">
         <v>1</v>
@@ -9821,10 +9821,10 @@
         <v>0.001635109891720254</v>
       </c>
       <c r="K214">
-        <v>-0.3321533321223868</v>
+        <v>-0.3321533321223867</v>
       </c>
       <c r="L214">
-        <v>-0.1317435935292198</v>
+        <v>-0.1317435935292192</v>
       </c>
       <c r="M214">
         <v>0</v>
@@ -9865,13 +9865,13 @@
         <v>0.02252012114766639</v>
       </c>
       <c r="K215">
-        <v>-0.2333026352010843</v>
+        <v>-0.2333026352010841</v>
       </c>
       <c r="L215">
-        <v>-0.2561271748716971</v>
+        <v>-0.2561271748716968</v>
       </c>
       <c r="M215">
-        <v>0.06373110471500791</v>
+        <v>0.06373110471500802</v>
       </c>
       <c r="N215">
         <v>0.5</v>
@@ -9909,10 +9909,10 @@
         <v>0.0134487390211222</v>
       </c>
       <c r="K216">
-        <v>-0.0977606093729048</v>
+        <v>-0.09776060937290466</v>
       </c>
       <c r="L216">
-        <v>0.3457775663783434</v>
+        <v>0.3457775663783437</v>
       </c>
       <c r="M216">
         <v>1</v>
@@ -9953,10 +9953,10 @@
         <v>-0.0145761270106732</v>
       </c>
       <c r="K217">
-        <v>-0.06574560460772261</v>
+        <v>-0.06574560460772251</v>
       </c>
       <c r="L217">
-        <v>0.8439189713774765</v>
+        <v>0.8439189713774771</v>
       </c>
       <c r="M217">
         <v>1</v>
@@ -9997,13 +9997,13 @@
         <v>-0.04650852104409239</v>
       </c>
       <c r="K218">
-        <v>-0.1094832039537817</v>
+        <v>-0.1094832039537816</v>
       </c>
       <c r="L218">
-        <v>0.4530118849780083</v>
+        <v>0.453011884978009</v>
       </c>
       <c r="M218">
-        <v>0.5098711892762456</v>
+        <v>0.5098711892762462</v>
       </c>
       <c r="N218">
         <v>0.5</v>
@@ -10041,13 +10041,13 @@
         <v>0.01958743721701841</v>
       </c>
       <c r="K219">
-        <v>-0.1834443879045147</v>
+        <v>-0.1834443879045146</v>
       </c>
       <c r="L219">
         <v>-1.41877834617922</v>
       </c>
       <c r="M219">
-        <v>0.6594451269830099</v>
+        <v>0.6594451269830101</v>
       </c>
       <c r="N219">
         <v>0.5</v>
@@ -10085,13 +10085,13 @@
         <v>-0.01008892003932233</v>
       </c>
       <c r="K220">
-        <v>-0.06866595602121511</v>
+        <v>-0.06866595602121502</v>
       </c>
       <c r="L220">
-        <v>-0.9786022960972983</v>
+        <v>-0.9786022960972981</v>
       </c>
       <c r="M220">
-        <v>0.4624343979182787</v>
+        <v>0.4624343979182786</v>
       </c>
       <c r="N220">
         <v>0.5</v>
@@ -10129,13 +10129,13 @@
         <v>-0.01039372229538899</v>
       </c>
       <c r="K221">
-        <v>-0.05491087580316146</v>
+        <v>-0.05491087580316138</v>
       </c>
       <c r="L221">
-        <v>-0.9807842511239583</v>
+        <v>-0.9807842511239585</v>
       </c>
       <c r="M221">
-        <v>0.6596874372246487</v>
+        <v>0.6596874372246492</v>
       </c>
       <c r="N221">
         <v>0.5</v>
@@ -10173,13 +10173,13 @@
         <v>-0.00755104058250373</v>
       </c>
       <c r="K222">
-        <v>-0.07807905402722375</v>
+        <v>-0.07807905402722363</v>
       </c>
       <c r="L222">
         <v>-1.101786371511214</v>
       </c>
       <c r="M222">
-        <v>0.7537036400801759</v>
+        <v>0.7537036400801761</v>
       </c>
       <c r="N222">
         <v>0.5</v>
@@ -10220,10 +10220,10 @@
         <v>-0.4457875439173142</v>
       </c>
       <c r="L223">
-        <v>-0.9044290825956427</v>
+        <v>-0.9044290825956424</v>
       </c>
       <c r="M223">
-        <v>0.6003610139318042</v>
+        <v>0.6003610139318041</v>
       </c>
       <c r="N223">
         <v>0.5</v>
@@ -10264,7 +10264,7 @@
         <v>-0.2037024518771567</v>
       </c>
       <c r="L224">
-        <v>-1.682813408427797</v>
+        <v>-1.682813408427796</v>
       </c>
       <c r="M224">
         <v>1</v>
@@ -10352,7 +10352,7 @@
         <v>-0.3538891003352117</v>
       </c>
       <c r="L226">
-        <v>-1.957777486839938</v>
+        <v>-1.957777486839937</v>
       </c>
       <c r="M226">
         <v>1</v>
@@ -10443,7 +10443,7 @@
         <v>-2.330361338937044</v>
       </c>
       <c r="M228">
-        <v>0.919476330734153</v>
+        <v>0.9194763307341534</v>
       </c>
       <c r="N228">
         <v>0.5</v>
@@ -10484,10 +10484,10 @@
         <v>0.5265374014095688</v>
       </c>
       <c r="L229">
-        <v>-2.212191793472915</v>
+        <v>-2.212191793472913</v>
       </c>
       <c r="M229">
-        <v>0.8432776897505625</v>
+        <v>0.8432776897505617</v>
       </c>
       <c r="N229">
         <v>0.5</v>
@@ -10528,7 +10528,7 @@
         <v>0.4992586963805239</v>
       </c>
       <c r="L230">
-        <v>0.5015442025009756</v>
+        <v>0.5015442025009755</v>
       </c>
       <c r="M230">
         <v>1</v>
@@ -10704,10 +10704,10 @@
         <v>0.1557894291290272</v>
       </c>
       <c r="L234">
-        <v>1.011418496972321</v>
+        <v>1.011418496972322</v>
       </c>
       <c r="M234">
-        <v>0.2502688729284502</v>
+        <v>0.2502688729284506</v>
       </c>
       <c r="N234">
         <v>0.5</v>
@@ -10751,7 +10751,7 @@
         <v>1.933726653653209</v>
       </c>
       <c r="M235">
-        <v>0.7029785415038566</v>
+        <v>0.702978541503857</v>
       </c>
       <c r="N235">
         <v>0.5</v>
@@ -10883,7 +10883,7 @@
         <v>1.440124161607838</v>
       </c>
       <c r="M238">
-        <v>0.4606965894651634</v>
+        <v>0.4606965894651635</v>
       </c>
       <c r="N238">
         <v>0.5</v>
@@ -10924,10 +10924,10 @@
         <v>0.350546971306763</v>
       </c>
       <c r="L239">
-        <v>2.149948297377622</v>
+        <v>2.149948297377621</v>
       </c>
       <c r="M239">
-        <v>0.8091096951321299</v>
+        <v>0.8091096951321297</v>
       </c>
       <c r="N239">
         <v>0.5</v>
@@ -10971,7 +10971,7 @@
         <v>2.320372544442657</v>
       </c>
       <c r="M240">
-        <v>0.8569640010463625</v>
+        <v>0.8569640010463627</v>
       </c>
       <c r="N240">
         <v>0.5</v>
@@ -11144,10 +11144,10 @@
         <v>0.9361383646683623</v>
       </c>
       <c r="L244">
-        <v>2.500208972582565</v>
+        <v>2.500208972582566</v>
       </c>
       <c r="M244">
-        <v>0.2512708828894151</v>
+        <v>0.2512708828894153</v>
       </c>
       <c r="N244">
         <v>0.5</v>
@@ -11232,7 +11232,7 @@
         <v>0.945403972333933</v>
       </c>
       <c r="L246">
-        <v>1.369686332517823</v>
+        <v>1.369686332517824</v>
       </c>
       <c r="M246">
         <v>0</v>
@@ -11279,7 +11279,7 @@
         <v>2.180697804232969</v>
       </c>
       <c r="M247">
-        <v>0.1890764836953513</v>
+        <v>0.1890764836953512</v>
       </c>
       <c r="N247">
         <v>0.5</v>
@@ -11323,7 +11323,7 @@
         <v>2.061410080448871</v>
       </c>
       <c r="M248">
-        <v>0.1612661454353748</v>
+        <v>0.1612661454353747</v>
       </c>
       <c r="N248">
         <v>0.5</v>
@@ -11364,10 +11364,10 @@
         <v>0.9935498959465403</v>
       </c>
       <c r="L249">
-        <v>1.91185815578603</v>
+        <v>1.911858155786029</v>
       </c>
       <c r="M249">
-        <v>0.1264001132874921</v>
+        <v>0.1264001132874916</v>
       </c>
       <c r="N249">
         <v>0.5</v>
@@ -11408,10 +11408,10 @@
         <v>0.5753458449662451</v>
       </c>
       <c r="L250">
-        <v>1.411375407250848</v>
+        <v>1.411375407250847</v>
       </c>
       <c r="M250">
-        <v>0.009719250508704971</v>
+        <v>0.009719250508704712</v>
       </c>
       <c r="N250">
         <v>0.5</v>
@@ -11455,7 +11455,7 @@
         <v>1.415919911364833</v>
       </c>
       <c r="M251">
-        <v>0.01077874089568337</v>
+        <v>0.01077874089568327</v>
       </c>
       <c r="N251">
         <v>0.5</v>
@@ -11499,7 +11499,7 @@
         <v>1.420866201553538</v>
       </c>
       <c r="M252">
-        <v>0.01193190233523657</v>
+        <v>0.01193190233523641</v>
       </c>
       <c r="N252">
         <v>0.5</v>
@@ -11584,10 +11584,10 @@
         <v>0.593961876298246</v>
       </c>
       <c r="L254">
-        <v>0.9213716553635338</v>
+        <v>0.9213716553635333</v>
       </c>
       <c r="M254">
-        <v>0.03372327508316987</v>
+        <v>0.03372327508316961</v>
       </c>
       <c r="N254">
         <v>0.5</v>
@@ -11628,7 +11628,7 @@
         <v>0.6041722971427469</v>
       </c>
       <c r="L255">
-        <v>0.7834332676160056</v>
+        <v>0.7834332676160053</v>
       </c>
       <c r="M255">
         <v>0</v>
@@ -11672,7 +11672,7 @@
         <v>0.3345557526391505</v>
       </c>
       <c r="L256">
-        <v>0.6497741125264576</v>
+        <v>0.6497741125264578</v>
       </c>
       <c r="M256">
         <v>0</v>
@@ -11716,7 +11716,7 @@
         <v>-0.0505151022515601</v>
       </c>
       <c r="L257">
-        <v>-0.1938150187882343</v>
+        <v>-0.193815018788234</v>
       </c>
       <c r="M257">
         <v>1</v>
@@ -11760,7 +11760,7 @@
         <v>-0.02740111014858121</v>
       </c>
       <c r="L258">
-        <v>0.2248808133269203</v>
+        <v>0.2248808133269198</v>
       </c>
       <c r="M258">
         <v>0</v>
@@ -11804,7 +11804,7 @@
         <v>-0.4878321144943482</v>
       </c>
       <c r="L259">
-        <v>-0.7520513566186039</v>
+        <v>-0.7520513566186042</v>
       </c>
       <c r="M259">
         <v>1</v>
@@ -11936,10 +11936,10 @@
         <v>-0.4374537153406943</v>
       </c>
       <c r="L262">
-        <v>-0.3852804664651189</v>
+        <v>-0.385280466465119</v>
       </c>
       <c r="M262">
-        <v>0.0571292077376274</v>
+        <v>0.05712920773762751</v>
       </c>
       <c r="N262">
         <v>0.5</v>
@@ -11980,10 +11980,10 @@
         <v>-0.4364840872093651</v>
       </c>
       <c r="L263">
-        <v>-0.4160741033078374</v>
+        <v>-0.4160741033078375</v>
       </c>
       <c r="M263">
-        <v>0.06631737248238888</v>
+        <v>0.06631737248238896</v>
       </c>
       <c r="N263">
         <v>0.5</v>
@@ -12071,7 +12071,7 @@
         <v>-1.102736039976963</v>
       </c>
       <c r="M265">
-        <v>0.2712026554483976</v>
+        <v>0.2712026554483975</v>
       </c>
       <c r="N265">
         <v>0.5</v>
@@ -12115,7 +12115,7 @@
         <v>-1.275945811025535</v>
       </c>
       <c r="M266">
-        <v>0.3228847584726467</v>
+        <v>0.3228847584726469</v>
       </c>
       <c r="N266">
         <v>0.5</v>
@@ -12159,7 +12159,7 @@
         <v>-1.244863010322049</v>
       </c>
       <c r="M267">
-        <v>0.2720214771352407</v>
+        <v>0.2720214771352406</v>
       </c>
       <c r="N267">
         <v>0.5</v>
@@ -12200,10 +12200,10 @@
         <v>-0.6238285221308585</v>
       </c>
       <c r="L268">
-        <v>-1.894757265907384</v>
+        <v>-1.894757265907383</v>
       </c>
       <c r="M268">
-        <v>0.4776854900324763</v>
+        <v>0.477685490032476</v>
       </c>
       <c r="N268">
         <v>0.5</v>
@@ -12244,10 +12244,10 @@
         <v>-0.2328237697658371</v>
       </c>
       <c r="L269">
-        <v>-2.311075100262613</v>
+        <v>-2.311075100262612</v>
       </c>
       <c r="M269">
-        <v>0.6094324561247784</v>
+        <v>0.6094324561247781</v>
       </c>
       <c r="N269">
         <v>0.5</v>
@@ -12335,7 +12335,7 @@
         <v>-0.4561379800959826</v>
       </c>
       <c r="M271">
-        <v>0.03679390958273626</v>
+        <v>0.03679390958273622</v>
       </c>
       <c r="N271">
         <v>0.5</v>
@@ -12376,7 +12376,7 @@
         <v>-0.1180851216444637</v>
       </c>
       <c r="L272">
-        <v>-0.1283101707246006</v>
+        <v>-0.1283101707246002</v>
       </c>
       <c r="M272">
         <v>0</v>
@@ -12420,10 +12420,10 @@
         <v>-0.1201255300225193</v>
       </c>
       <c r="L273">
-        <v>-0.1721210271697056</v>
+        <v>-0.1721210271697055</v>
       </c>
       <c r="M273">
-        <v>0.02007126642555031</v>
+        <v>0.02007126642555043</v>
       </c>
       <c r="N273">
         <v>0.5</v>
@@ -12464,7 +12464,7 @@
         <v>0.3712795298752319</v>
       </c>
       <c r="L274">
-        <v>0.3416301714849582</v>
+        <v>0.3416301714849583</v>
       </c>
       <c r="M274">
         <v>1</v>
@@ -12508,7 +12508,7 @@
         <v>0.3651965476099059</v>
       </c>
       <c r="L275">
-        <v>0.6129105735010532</v>
+        <v>0.6129105735010533</v>
       </c>
       <c r="M275">
         <v>1</v>
@@ -12552,10 +12552,10 @@
         <v>0.3562128534804699</v>
       </c>
       <c r="L276">
-        <v>0.4103018429368012</v>
+        <v>0.4103018429368013</v>
       </c>
       <c r="M276">
-        <v>0.2531390802339223</v>
+        <v>0.2531390802339224</v>
       </c>
       <c r="N276">
         <v>0.5</v>
@@ -12640,7 +12640,7 @@
         <v>0.8351179586171513</v>
       </c>
       <c r="L278">
-        <v>2.35314468619577</v>
+        <v>2.353144686195769</v>
       </c>
       <c r="M278">
         <v>1</v>
@@ -12684,10 +12684,10 @@
         <v>0.03335048270949496</v>
       </c>
       <c r="L279">
-        <v>1.433026125872634</v>
+        <v>1.433026125872632</v>
       </c>
       <c r="M279">
-        <v>0.5425742376731403</v>
+        <v>0.5425742376731397</v>
       </c>
       <c r="N279">
         <v>0.5</v>
@@ -12731,7 +12731,7 @@
         <v>1.679279395187607</v>
       </c>
       <c r="M280">
-        <v>0.6649960584027693</v>
+        <v>0.6649960584027692</v>
       </c>
       <c r="N280">
         <v>0.5</v>
@@ -12775,7 +12775,7 @@
         <v>2.308105705454734</v>
       </c>
       <c r="M281">
-        <v>0.9776094179725512</v>
+        <v>0.9776094179725513</v>
       </c>
       <c r="N281">
         <v>0.5</v>
@@ -12819,7 +12819,7 @@
         <v>2.014646167000369</v>
       </c>
       <c r="M282">
-        <v>0.831719574121957</v>
+        <v>0.8317195741219566</v>
       </c>
       <c r="N282">
         <v>0.5</v>
@@ -12904,10 +12904,10 @@
         <v>0.1350910451411113</v>
       </c>
       <c r="L284">
-        <v>3.109819154327069</v>
+        <v>3.109819154327068</v>
       </c>
       <c r="M284">
-        <v>0.8653433118449144</v>
+        <v>0.865343311844914</v>
       </c>
       <c r="N284">
         <v>0.5</v>
@@ -12992,10 +12992,10 @@
         <v>0.07315479269174534</v>
       </c>
       <c r="L286">
-        <v>2.645159808594626</v>
+        <v>2.645159808594625</v>
       </c>
       <c r="M286">
-        <v>0.668489624374707</v>
+        <v>0.6684896243747069</v>
       </c>
       <c r="N286">
         <v>0.5</v>
@@ -13039,7 +13039,7 @@
         <v>2.635297772974901</v>
       </c>
       <c r="M287">
-        <v>0.5733657597354229</v>
+        <v>0.573365759735423</v>
       </c>
       <c r="N287">
         <v>0.5</v>
@@ -13083,7 +13083,7 @@
         <v>1.435584010401109</v>
       </c>
       <c r="M288">
-        <v>0.001219860261630172</v>
+        <v>0.001219860261630807</v>
       </c>
       <c r="N288">
         <v>0.5</v>
@@ -13124,7 +13124,7 @@
         <v>0.05797232087387857</v>
       </c>
       <c r="L289">
-        <v>0.002125006551645613</v>
+        <v>0.002125006551645742</v>
       </c>
       <c r="M289">
         <v>0</v>
@@ -13168,7 +13168,7 @@
         <v>0.1061102011421821</v>
       </c>
       <c r="L290">
-        <v>0.1904538735961999</v>
+        <v>0.1904538735962</v>
       </c>
       <c r="M290">
         <v>0.05338470936083623</v>
@@ -13303,7 +13303,7 @@
         <v>-1.090783788762449</v>
       </c>
       <c r="M293">
-        <v>0.649091273566189</v>
+        <v>0.6490912735661888</v>
       </c>
       <c r="N293">
         <v>0.5</v>
@@ -13344,7 +13344,7 @@
         <v>-0.9616778563017535</v>
       </c>
       <c r="L294">
-        <v>-1.930777389662468</v>
+        <v>-1.930777389662469</v>
       </c>
       <c r="M294">
         <v>1</v>
@@ -13388,10 +13388,10 @@
         <v>-0.9753064303722824</v>
       </c>
       <c r="L295">
-        <v>-1.785801824537296</v>
+        <v>-1.785801824537295</v>
       </c>
       <c r="M295">
-        <v>0.9113652914905558</v>
+        <v>0.9113652914905549</v>
       </c>
       <c r="N295">
         <v>0.5</v>
@@ -13432,10 +13432,10 @@
         <v>-0.7426861472622882</v>
       </c>
       <c r="L296">
-        <v>-1.265277338591587</v>
+        <v>-1.265277338591588</v>
       </c>
       <c r="M296">
-        <v>0.5931286559306828</v>
+        <v>0.5931286559306829</v>
       </c>
       <c r="N296">
         <v>0.5</v>
@@ -13479,7 +13479,7 @@
         <v>-1.193874935097823</v>
       </c>
       <c r="M297">
-        <v>0.5494748773433795</v>
+        <v>0.5494748773433791</v>
       </c>
       <c r="N297">
         <v>0.5</v>
@@ -13523,7 +13523,7 @@
         <v>-1.017306813803641</v>
       </c>
       <c r="M298">
-        <v>0.4415252104498051</v>
+        <v>0.4415252104498049</v>
       </c>
       <c r="N298">
         <v>0.5</v>
@@ -13564,10 +13564,10 @@
         <v>-0.5667278330559644</v>
       </c>
       <c r="L299">
-        <v>-0.7755202463553624</v>
+        <v>-0.7755202463553625</v>
       </c>
       <c r="M299">
-        <v>0.2937024935059265</v>
+        <v>0.2937024935059264</v>
       </c>
       <c r="N299">
         <v>0.5</v>
@@ -13611,7 +13611,7 @@
         <v>-1.101503182871779</v>
       </c>
       <c r="M300">
-        <v>0.4930009237775279</v>
+        <v>0.4930009237775275</v>
       </c>
       <c r="N300">
         <v>0.5</v>
@@ -13652,10 +13652,10 @@
         <v>-0.5528196548186537</v>
       </c>
       <c r="L301">
-        <v>-0.9249803539859256</v>
+        <v>-0.9249803539859257</v>
       </c>
       <c r="M301">
-        <v>0.129373887447006</v>
+        <v>0.1293738874470059</v>
       </c>
       <c r="N301">
         <v>0.5</v>
@@ -13696,7 +13696,7 @@
         <v>-0.5839806886057645</v>
       </c>
       <c r="L302">
-        <v>-0.724891541354549</v>
+        <v>-0.7248915413545493</v>
       </c>
       <c r="M302">
         <v>0</v>
@@ -13740,7 +13740,7 @@
         <v>-0.5187554622837898</v>
       </c>
       <c r="L303">
-        <v>-0.5860267343706845</v>
+        <v>-0.5860267343706851</v>
       </c>
       <c r="M303">
         <v>0</v>
@@ -13784,7 +13784,7 @@
         <v>-0.398577153171647</v>
       </c>
       <c r="L304">
-        <v>-0.3500745840804225</v>
+        <v>-0.3500745840804236</v>
       </c>
       <c r="M304">
         <v>0</v>
@@ -13828,7 +13828,7 @@
         <v>-0.4574327085477086</v>
       </c>
       <c r="L305">
-        <v>-3.573737341054855</v>
+        <v>-3.573737341054856</v>
       </c>
       <c r="M305">
         <v>1</v>
@@ -13916,10 +13916,10 @@
         <v>-0.8056023199283298</v>
       </c>
       <c r="L307">
-        <v>-4.753229856509197</v>
+        <v>-4.753229856509194</v>
       </c>
       <c r="M307">
-        <v>0.9168020305482901</v>
+        <v>0.9168020305482896</v>
       </c>
       <c r="N307">
         <v>0.5</v>
@@ -14004,10 +14004,10 @@
         <v>-0.4533507090872829</v>
       </c>
       <c r="L309">
-        <v>-3.913597520211113</v>
+        <v>-3.913597520211114</v>
       </c>
       <c r="M309">
-        <v>0.6542178096681105</v>
+        <v>0.6542178096681104</v>
       </c>
       <c r="N309">
         <v>0.5</v>
@@ -14095,7 +14095,7 @@
         <v>-3.634990763774107</v>
       </c>
       <c r="M311">
-        <v>0.603069127529175</v>
+        <v>0.6030691275291747</v>
       </c>
       <c r="N311">
         <v>0.5</v>
@@ -14136,10 +14136,10 @@
         <v>-0.3991791870313861</v>
       </c>
       <c r="L312">
-        <v>-3.347799910458992</v>
+        <v>-3.347799910458991</v>
       </c>
       <c r="M312">
-        <v>0.5503445136063759</v>
+        <v>0.5503445136063755</v>
       </c>
       <c r="N312">
         <v>0.5</v>
@@ -14180,7 +14180,7 @@
         <v>-0.5463884520587498</v>
       </c>
       <c r="L313">
-        <v>-3.868362072589171</v>
+        <v>-3.868362072589172</v>
       </c>
       <c r="M313">
         <v>0.6459131527336678</v>
@@ -14227,7 +14227,7 @@
         <v>-3.665860754753454</v>
       </c>
       <c r="M314">
-        <v>0.1298593171807141</v>
+        <v>0.1298593171807146</v>
       </c>
       <c r="N314">
         <v>0.5</v>
@@ -14356,10 +14356,10 @@
         <v>-0.2997486421409741</v>
       </c>
       <c r="L317">
-        <v>-3.482752995993193</v>
+        <v>-3.482752995993194</v>
       </c>
       <c r="M317">
-        <v>0.142470655861806</v>
+        <v>0.1424706558618061</v>
       </c>
       <c r="N317">
         <v>0.5</v>
@@ -14444,7 +14444,7 @@
         <v>-0.7135033607607498</v>
       </c>
       <c r="L319">
-        <v>-2.123875228115991</v>
+        <v>-2.123875228115992</v>
       </c>
       <c r="M319">
         <v>0</v>
@@ -14488,10 +14488,10 @@
         <v>-0.4055145621041964</v>
       </c>
       <c r="L320">
-        <v>-2.780765449893683</v>
+        <v>-2.780765449893684</v>
       </c>
       <c r="M320">
-        <v>0.376552121249196</v>
+        <v>0.3765521212491961</v>
       </c>
       <c r="N320">
         <v>0.5</v>
@@ -14576,7 +14576,7 @@
         <v>0.06938693454590329</v>
       </c>
       <c r="L322">
-        <v>-0.8036236050983654</v>
+        <v>-0.8036236050983655</v>
       </c>
       <c r="M322">
         <v>0</v>
@@ -14708,7 +14708,7 @@
         <v>0.4661892276220027</v>
       </c>
       <c r="L325">
-        <v>0.3942062821101758</v>
+        <v>0.3942062821101757</v>
       </c>
       <c r="M325">
         <v>1</v>
@@ -14796,7 +14796,7 @@
         <v>0.9477465698018328</v>
       </c>
       <c r="L327">
-        <v>1.764152895160268</v>
+        <v>1.764152895160269</v>
       </c>
       <c r="M327">
         <v>1</v>
@@ -14843,7 +14843,7 @@
         <v>1.653250855540464</v>
       </c>
       <c r="M328">
-        <v>0.9190464514723762</v>
+        <v>0.9190464514723758</v>
       </c>
       <c r="N328">
         <v>0.5</v>
@@ -14928,7 +14928,7 @@
         <v>0.7025660420581099</v>
       </c>
       <c r="L330">
-        <v>3.099016729946172</v>
+        <v>3.099016729946173</v>
       </c>
       <c r="M330">
         <v>1</v>
@@ -14975,7 +14975,7 @@
         <v>1.258073292526802</v>
       </c>
       <c r="M331">
-        <v>0.3193817190065091</v>
+        <v>0.319381719006509</v>
       </c>
       <c r="N331">
         <v>0.5</v>
@@ -15063,7 +15063,7 @@
         <v>2.552022436259825</v>
       </c>
       <c r="M333">
-        <v>0.7977698237139041</v>
+        <v>0.797769823713904</v>
       </c>
       <c r="N333">
         <v>0.5</v>
@@ -15107,7 +15107,7 @@
         <v>2.095585577234113</v>
       </c>
       <c r="M334">
-        <v>0.6290197882388168</v>
+        <v>0.6290197882388163</v>
       </c>
       <c r="N334">
         <v>0.5</v>
@@ -15151,7 +15151,7 @@
         <v>1.113111267184024</v>
       </c>
       <c r="M335">
-        <v>0.0281597826886813</v>
+        <v>0.02815978268868118</v>
       </c>
       <c r="N335">
         <v>0.5</v>
@@ -15192,7 +15192,7 @@
         <v>-0.04251669366143204</v>
       </c>
       <c r="L336">
-        <v>0.6588082921993706</v>
+        <v>0.6588082921993703</v>
       </c>
       <c r="M336">
         <v>0</v>
@@ -15324,7 +15324,7 @@
         <v>-0.507479328934736</v>
       </c>
       <c r="L339">
-        <v>-0.4992583244769105</v>
+        <v>-0.4992583244769106</v>
       </c>
       <c r="M339">
         <v>0.2319732687154001</v>
@@ -15368,10 +15368,10 @@
         <v>-0.5170717404284043</v>
       </c>
       <c r="L340">
-        <v>-0.5768947201232857</v>
+        <v>-0.5768947201232856</v>
       </c>
       <c r="M340">
-        <v>0.3430109624768538</v>
+        <v>0.3430109624768534</v>
       </c>
       <c r="N340">
         <v>0.5</v>
@@ -15415,7 +15415,7 @@
         <v>-1.024914309260725</v>
       </c>
       <c r="M341">
-        <v>0.9837808169194459</v>
+        <v>0.9837808169194452</v>
       </c>
       <c r="N341">
         <v>0.5</v>
@@ -15456,10 +15456,10 @@
         <v>-0.6655769180121081</v>
       </c>
       <c r="L342">
-        <v>-0.9887358424870354</v>
+        <v>-0.9887358424870352</v>
       </c>
       <c r="M342">
-        <v>0.9320373854923395</v>
+        <v>0.9320373854923386</v>
       </c>
       <c r="N342">
         <v>0.5</v>
@@ -15632,7 +15632,7 @@
         <v>-0.6019852962797266</v>
       </c>
       <c r="L346">
-        <v>-3.154493059090141</v>
+        <v>-3.15449305909014</v>
       </c>
       <c r="M346">
         <v>1</v>
@@ -15676,10 +15676,10 @@
         <v>-0.05225423374710812</v>
       </c>
       <c r="L347">
-        <v>-0.9320356956438626</v>
+        <v>-0.9320356956438633</v>
       </c>
       <c r="M347">
-        <v>0.2111751047967731</v>
+        <v>0.2111751047967735</v>
       </c>
       <c r="N347">
         <v>0.5</v>
@@ -15720,10 +15720,10 @@
         <v>-0.3923220664565814</v>
       </c>
       <c r="L348">
-        <v>-1.759375447245798</v>
+        <v>-1.759375447245797</v>
       </c>
       <c r="M348">
-        <v>0.4745784266611892</v>
+        <v>0.474578426661189</v>
       </c>
       <c r="N348">
         <v>0.5</v>
@@ -15764,10 +15764,10 @@
         <v>-0.4069858380614487</v>
       </c>
       <c r="L349">
-        <v>-1.879414911232372</v>
+        <v>-1.879414911232373</v>
       </c>
       <c r="M349">
-        <v>0.5053231806593879</v>
+        <v>0.5053231806593883</v>
       </c>
       <c r="N349">
         <v>0.5</v>
@@ -15855,7 +15855,7 @@
         <v>-1.678445820029967</v>
       </c>
       <c r="M351">
-        <v>0.335849018596548</v>
+        <v>0.3358490185965481</v>
       </c>
       <c r="N351">
         <v>0.5</v>
@@ -15896,10 +15896,10 @@
         <v>-0.8517552979509164</v>
       </c>
       <c r="L352">
-        <v>-1.278202673877928</v>
+        <v>-1.278202673877927</v>
       </c>
       <c r="M352">
-        <v>0.1557586588285669</v>
+        <v>0.1557586588285664</v>
       </c>
       <c r="N352">
         <v>0.5</v>
@@ -15943,7 +15943,7 @@
         <v>-1.3685783775005</v>
       </c>
       <c r="M353">
-        <v>0.196423422575679</v>
+        <v>0.1964234225756787</v>
       </c>
       <c r="N353">
         <v>0.5</v>
@@ -15984,7 +15984,7 @@
         <v>-0.9873482440983622</v>
       </c>
       <c r="L354">
-        <v>-0.9007909408271054</v>
+        <v>-0.9007909408271055</v>
       </c>
       <c r="M354">
         <v>0</v>
@@ -16031,7 +16031,7 @@
         <v>-1.037795839074634</v>
       </c>
       <c r="M355">
-        <v>0.06079104116613266</v>
+        <v>0.06079104116613265</v>
       </c>
       <c r="N355">
         <v>0.5</v>
@@ -16072,10 +16072,10 @@
         <v>-1</v>
       </c>
       <c r="L356">
-        <v>-0.9840776788321738</v>
+        <v>-0.9840776788321731</v>
       </c>
       <c r="M356">
-        <v>0.08510596564539263</v>
+        <v>0.08510596564539179</v>
       </c>
       <c r="N356">
         <v>0.5</v>
@@ -16119,7 +16119,7 @@
         <v>-1.142295092189314</v>
       </c>
       <c r="M357">
-        <v>0.2467793132659493</v>
+        <v>0.2467793132659492</v>
       </c>
       <c r="N357">
         <v>0.5</v>
@@ -16163,7 +16163,7 @@
         <v>-1.352552306271434</v>
       </c>
       <c r="M358">
-        <v>0.4616291641183136</v>
+        <v>0.4616291641183137</v>
       </c>
       <c r="N358">
         <v>0.5</v>
@@ -16207,7 +16207,7 @@
         <v>-1.424067093601564</v>
       </c>
       <c r="M359">
-        <v>0.5460423688449325</v>
+        <v>0.5460423688449326</v>
       </c>
       <c r="N359">
         <v>0.5</v>
@@ -16292,7 +16292,7 @@
         <v>-0.5463193069509006</v>
       </c>
       <c r="L361">
-        <v>-0.2944963977889453</v>
+        <v>-0.2944963977889449</v>
       </c>
       <c r="M361">
         <v>0</v>
@@ -16380,7 +16380,7 @@
         <v>-0.3140977060403038</v>
       </c>
       <c r="L363">
-        <v>0.6548344558513624</v>
+        <v>0.6548344558513615</v>
       </c>
       <c r="M363">
         <v>1</v>
@@ -16424,10 +16424,10 @@
         <v>-0.3908215722117693</v>
       </c>
       <c r="L364">
-        <v>-0.4029142770960473</v>
+        <v>-0.4029142770960471</v>
       </c>
       <c r="M364">
-        <v>0.06378218011772223</v>
+        <v>0.06378218011772233</v>
       </c>
       <c r="N364">
         <v>0.5</v>
@@ -16468,10 +16468,10 @@
         <v>-0.375813954715131</v>
       </c>
       <c r="L365">
-        <v>-0.3665969796074763</v>
+        <v>-0.3665969796074765</v>
       </c>
       <c r="M365">
-        <v>0.04241673352709521</v>
+        <v>0.04241673352709553</v>
       </c>
       <c r="N365">
         <v>0.5</v>
@@ -16515,7 +16515,7 @@
         <v>-1.062574855955983</v>
       </c>
       <c r="M366">
-        <v>0.4518601440689058</v>
+        <v>0.4518601440689061</v>
       </c>
       <c r="N366">
         <v>0.5</v>
@@ -16556,7 +16556,7 @@
         <v>-0.4560543802250471</v>
       </c>
       <c r="L367">
-        <v>-0.2909841037531736</v>
+        <v>-0.2909841037531733</v>
       </c>
       <c r="M367">
         <v>0</v>
@@ -16600,10 +16600,10 @@
         <v>0.09785308073873877</v>
       </c>
       <c r="L368">
-        <v>-0.6043909085376167</v>
+        <v>-0.6043909085376165</v>
       </c>
       <c r="M368">
-        <v>0.1839968656158224</v>
+        <v>0.1839968656158225</v>
       </c>
       <c r="N368">
         <v>0.5</v>
@@ -16644,10 +16644,10 @@
         <v>0.06139443762159476</v>
       </c>
       <c r="L369">
-        <v>-0.3422474403647986</v>
+        <v>-0.3422474403647989</v>
       </c>
       <c r="M369">
-        <v>0.03009600657533664</v>
+        <v>0.03009600657533694</v>
       </c>
       <c r="N369">
         <v>0.5</v>
@@ -16688,7 +16688,7 @@
         <v>0.2461811184200204</v>
       </c>
       <c r="L370">
-        <v>0.3099620681430272</v>
+        <v>0.3099620681430275</v>
       </c>
       <c r="M370">
         <v>0</v>
@@ -16732,7 +16732,7 @@
         <v>0.203092170147519</v>
       </c>
       <c r="L371">
-        <v>0.6568197809745263</v>
+        <v>0.6568197809745262</v>
       </c>
       <c r="M371">
         <v>1</v>
@@ -16820,10 +16820,10 @@
         <v>-0.01815808530197512</v>
       </c>
       <c r="L373">
-        <v>0.6198339138806523</v>
+        <v>0.6198339138806521</v>
       </c>
       <c r="M373">
-        <v>0.4292880759669238</v>
+        <v>0.4292880759669233</v>
       </c>
       <c r="N373">
         <v>0.5</v>
@@ -16952,7 +16952,7 @@
         <v>0.6299674749478146</v>
       </c>
       <c r="L376">
-        <v>1.77735898162363</v>
+        <v>1.777358981623631</v>
       </c>
       <c r="M376">
         <v>1</v>
@@ -16999,7 +16999,7 @@
         <v>1.356208092594563</v>
       </c>
       <c r="M377">
-        <v>0.712994565301275</v>
+        <v>0.7129945653012749</v>
       </c>
       <c r="N377">
         <v>0.5</v>
@@ -17040,10 +17040,10 @@
         <v>-0.0362896585132453</v>
       </c>
       <c r="L378">
-        <v>0.681580461859961</v>
+        <v>0.6815804618599605</v>
       </c>
       <c r="M378">
-        <v>0.2532500854424389</v>
+        <v>0.2532500854424383</v>
       </c>
       <c r="N378">
         <v>0.5</v>
@@ -17087,7 +17087,7 @@
         <v>1.10564398474738</v>
       </c>
       <c r="M379">
-        <v>0.5422404185906519</v>
+        <v>0.5422404185906515</v>
       </c>
       <c r="N379">
         <v>0.5</v>
@@ -17131,7 +17131,7 @@
         <v>1.003546336320543</v>
       </c>
       <c r="M380">
-        <v>0.3314938338122385</v>
+        <v>0.3314938338122387</v>
       </c>
       <c r="N380">
         <v>0.5</v>
@@ -17175,7 +17175,7 @@
         <v>0.8196813352812823</v>
       </c>
       <c r="M381">
-        <v>0.1726506206818537</v>
+        <v>0.1726506206818538</v>
       </c>
       <c r="N381">
         <v>0.5</v>
@@ -17216,7 +17216,7 @@
         <v>-0.1598305503828811</v>
       </c>
       <c r="L382">
-        <v>0.3558339280651819</v>
+        <v>0.3558339280651817</v>
       </c>
       <c r="M382">
         <v>0</v>
@@ -17263,7 +17263,7 @@
         <v>1.002304135297879</v>
       </c>
       <c r="M383">
-        <v>0.4547722923450511</v>
+        <v>0.454772292345051</v>
       </c>
       <c r="N383">
         <v>0.5</v>
@@ -17307,7 +17307,7 @@
         <v>0.9658152502839539</v>
       </c>
       <c r="M384">
-        <v>0.4291034622934217</v>
+        <v>0.4291034622934216</v>
       </c>
       <c r="N384">
         <v>0.5</v>
@@ -17351,7 +17351,7 @@
         <v>1.417758878607259</v>
       </c>
       <c r="M385">
-        <v>0.7470321735686624</v>
+        <v>0.7470321735686619</v>
       </c>
       <c r="N385">
         <v>0.5</v>
@@ -17392,10 +17392,10 @@
         <v>0.01325181532511152</v>
       </c>
       <c r="L386">
-        <v>0.8286332684174218</v>
+        <v>0.8286332684174226</v>
       </c>
       <c r="M386">
-        <v>0.445228582406781</v>
+        <v>0.4452285824067819</v>
       </c>
       <c r="N386">
         <v>0.5</v>
@@ -17436,10 +17436,10 @@
         <v>0.6580804552606979</v>
       </c>
       <c r="L387">
-        <v>0.8525021508070193</v>
+        <v>0.8525021508070194</v>
       </c>
       <c r="M387">
-        <v>0.4677055779585036</v>
+        <v>0.4677055779585039</v>
       </c>
       <c r="N387">
         <v>0.5</v>
@@ -17480,10 +17480,10 @@
         <v>0.2685210939627228</v>
       </c>
       <c r="L388">
-        <v>0.8185967492321382</v>
+        <v>0.8185967492321385</v>
       </c>
       <c r="M388">
-        <v>0.4357773314684164</v>
+        <v>0.4357773314684169</v>
       </c>
       <c r="N388">
         <v>0.5</v>
@@ -17527,7 +17527,7 @@
         <v>0.6515503026419793</v>
       </c>
       <c r="M389">
-        <v>0.2784720091809164</v>
+        <v>0.2784720091809166</v>
       </c>
       <c r="N389">
         <v>0.5</v>
@@ -17659,7 +17659,7 @@
         <v>-1.081379146749582</v>
       </c>
       <c r="M392">
-        <v>0.9491262582404493</v>
+        <v>0.949126258240449</v>
       </c>
       <c r="N392">
         <v>0.5</v>
@@ -17747,7 +17747,7 @@
         <v>-1.450962310163742</v>
       </c>
       <c r="M394">
-        <v>0.8803074314799121</v>
+        <v>0.8803074314799118</v>
       </c>
       <c r="N394">
         <v>0.5</v>
@@ -17788,7 +17788,7 @@
         <v>-0.9631423626173814</v>
       </c>
       <c r="L395">
-        <v>-1.769794517768522</v>
+        <v>-1.769794517768521</v>
       </c>
       <c r="M395">
         <v>1</v>
@@ -17832,10 +17832,10 @@
         <v>-0.9625887724422446</v>
       </c>
       <c r="L396">
-        <v>-1.534204865486845</v>
+        <v>-1.534204865486844</v>
       </c>
       <c r="M396">
-        <v>0.8476826787709609</v>
+        <v>0.8476826787709612</v>
       </c>
       <c r="N396">
         <v>0.5</v>
@@ -17879,7 +17879,7 @@
         <v>-1.442449039949244</v>
       </c>
       <c r="M397">
-        <v>0.7883591837970122</v>
+        <v>0.788359183797013</v>
       </c>
       <c r="N397">
         <v>0.5</v>
@@ -17920,7 +17920,7 @@
         <v>-0.9556997994974157</v>
       </c>
       <c r="L398">
-        <v>-0.4602610251371319</v>
+        <v>-0.4602610251371318</v>
       </c>
       <c r="M398">
         <v>0.1533387323020635</v>
@@ -17964,10 +17964,10 @@
         <v>-0.9895288089321987</v>
       </c>
       <c r="L399">
-        <v>-0.9150157634266062</v>
+        <v>-0.9150157634266063</v>
       </c>
       <c r="M399">
-        <v>0.4473542923303451</v>
+        <v>0.4473542923303453</v>
       </c>
       <c r="N399">
         <v>0.5</v>
@@ -18008,7 +18008,7 @@
         <v>-0.992509767213648</v>
       </c>
       <c r="L400">
-        <v>-0.07074755506423436</v>
+        <v>-0.0707475550642344</v>
       </c>
       <c r="M400">
         <v>0</v>
@@ -18052,7 +18052,7 @@
         <v>-0.9630067439739198</v>
       </c>
       <c r="L401">
-        <v>0.05253778231172147</v>
+        <v>0.05253778231172133</v>
       </c>
       <c r="M401">
         <v>1</v>
@@ -18096,7 +18096,7 @@
         <v>-0.4547446304328928</v>
       </c>
       <c r="L402">
-        <v>-0.4114270741965264</v>
+        <v>-0.4114270741965262</v>
       </c>
       <c r="M402">
         <v>0.200512126274632</v>
@@ -18140,7 +18140,7 @@
         <v>-0.4848269104983007</v>
       </c>
       <c r="L403">
-        <v>-1.110939466110026</v>
+        <v>-1.110939466110025</v>
       </c>
       <c r="M403">
         <v>0.6122208119486999</v>
@@ -18184,10 +18184,10 @@
         <v>-0.3542171451330293</v>
       </c>
       <c r="L404">
-        <v>-0.7919590865640844</v>
+        <v>-0.7919590865640849</v>
       </c>
       <c r="M404">
-        <v>0.4244800451848217</v>
+        <v>0.4244800451848222</v>
       </c>
       <c r="N404">
         <v>0.5</v>
@@ -18231,7 +18231,7 @@
         <v>-0.7156174993668212</v>
       </c>
       <c r="M405">
-        <v>0.4406482783678632</v>
+        <v>0.4406482783678634</v>
       </c>
       <c r="N405">
         <v>0.5</v>
@@ -18316,10 +18316,10 @@
         <v>-0.239221789374196</v>
       </c>
       <c r="L407">
-        <v>-1.280495660707873</v>
+        <v>-1.280495660707872</v>
       </c>
       <c r="M407">
-        <v>0.8650082625951665</v>
+        <v>0.8650082625951664</v>
       </c>
       <c r="N407">
         <v>0.5</v>
@@ -18404,10 +18404,10 @@
         <v>-0.1757288168901992</v>
       </c>
       <c r="L409">
-        <v>-0.7042588760164756</v>
+        <v>-0.7042588760164763</v>
       </c>
       <c r="M409">
-        <v>0.4529806862393982</v>
+        <v>0.4529806862393986</v>
       </c>
       <c r="N409">
         <v>0.5</v>
@@ -18492,10 +18492,10 @@
         <v>0.1220817407266863</v>
       </c>
       <c r="L411">
-        <v>-1.587687401588429</v>
+        <v>-1.58768740158843</v>
       </c>
       <c r="M411">
-        <v>0.6861948015380005</v>
+        <v>0.6861948015380008</v>
       </c>
       <c r="N411">
         <v>0.5</v>
@@ -18536,10 +18536,10 @@
         <v>-0.7059183334685216</v>
       </c>
       <c r="L412">
-        <v>-0.7271756805238498</v>
+        <v>-0.7271756805238497</v>
       </c>
       <c r="M412">
-        <v>0.01612330451792038</v>
+        <v>0.01612330451791984</v>
       </c>
       <c r="N412">
         <v>0.5</v>
@@ -18580,10 +18580,10 @@
         <v>-0.6187922349715431</v>
       </c>
       <c r="L413">
-        <v>-0.9824282288721305</v>
+        <v>-0.9824282288721302</v>
       </c>
       <c r="M413">
-        <v>0.1957083144904158</v>
+        <v>0.1957083144904151</v>
       </c>
       <c r="N413">
         <v>0.5</v>
@@ -18627,7 +18627,7 @@
         <v>-0.7172607551552835</v>
       </c>
       <c r="M414">
-        <v>0.009147577996432271</v>
+        <v>0.009147577996431806</v>
       </c>
       <c r="N414">
         <v>0.5</v>
@@ -18668,7 +18668,7 @@
         <v>-0.7906580574834006</v>
       </c>
       <c r="L415">
-        <v>-0.5987327715726153</v>
+        <v>-0.5987327715726152</v>
       </c>
       <c r="M415">
         <v>0</v>
@@ -18712,7 +18712,7 @@
         <v>-0.6805418638174465</v>
       </c>
       <c r="L416">
-        <v>-0.08372482393169219</v>
+        <v>-0.08372482393169216</v>
       </c>
       <c r="M416">
         <v>0</v>
@@ -18756,10 +18756,10 @@
         <v>-0.6673571689387827</v>
       </c>
       <c r="L417">
-        <v>-0.1121535080479503</v>
+        <v>-0.1121535080479502</v>
       </c>
       <c r="M417">
-        <v>0.01392279401765884</v>
+        <v>0.01392279401765883</v>
       </c>
       <c r="N417">
         <v>0.5</v>
@@ -18800,10 +18800,10 @@
         <v>-0.6828888470107508</v>
       </c>
       <c r="L418">
-        <v>-0.1701985297828492</v>
+        <v>-0.170198529782849</v>
       </c>
       <c r="M418">
-        <v>0.04235002892099212</v>
+        <v>0.04235002892099202</v>
       </c>
       <c r="N418">
         <v>0.5</v>
@@ -18844,10 +18844,10 @@
         <v>-0.9263828678898287</v>
       </c>
       <c r="L419">
-        <v>-0.7004081105178429</v>
+        <v>-0.700408110517843</v>
       </c>
       <c r="M419">
-        <v>0.3020172983793376</v>
+        <v>0.3020172983793377</v>
       </c>
       <c r="N419">
         <v>0.5</v>
@@ -18888,7 +18888,7 @@
         <v>-0.9213460496458795</v>
       </c>
       <c r="L420">
-        <v>-0.2590878520448612</v>
+        <v>-0.2590878520448613</v>
       </c>
       <c r="M420">
         <v>0.1166006592972513</v>
@@ -18932,10 +18932,10 @@
         <v>-0.9402277339035814</v>
       </c>
       <c r="L421">
-        <v>-0.5306731702998757</v>
+        <v>-0.5306731702998759</v>
       </c>
       <c r="M421">
-        <v>0.4973257516452885</v>
+        <v>0.4973257516452888</v>
       </c>
       <c r="N421">
         <v>0.5</v>
@@ -18976,10 +18976,10 @@
         <v>-0.9468824066241336</v>
       </c>
       <c r="L422">
-        <v>-0.1691745125918645</v>
+        <v>-0.1691745125918649</v>
       </c>
       <c r="M422">
-        <v>0.09508107812925834</v>
+        <v>0.0950810781292588</v>
       </c>
       <c r="N422">
         <v>0.5</v>
@@ -19064,7 +19064,7 @@
         <v>0.3946525127753258</v>
       </c>
       <c r="L424">
-        <v>0.7181286698569652</v>
+        <v>0.7181286698569648</v>
       </c>
       <c r="M424">
         <v>1</v>
@@ -19108,10 +19108,10 @@
         <v>0.2570408329154988</v>
       </c>
       <c r="L425">
-        <v>-0.5484430863506806</v>
+        <v>-0.5484430863506807</v>
       </c>
       <c r="M425">
-        <v>0.4169337757835034</v>
+        <v>0.4169337757835037</v>
       </c>
       <c r="N425">
         <v>0.5</v>
@@ -19152,10 +19152,10 @@
         <v>0.2747976648133728</v>
       </c>
       <c r="L426">
-        <v>-0.1583647466135923</v>
+        <v>-0.158364746613592</v>
       </c>
       <c r="M426">
-        <v>0.04254470946027454</v>
+        <v>0.04254470946027431</v>
       </c>
       <c r="N426">
         <v>0.5</v>
@@ -19240,10 +19240,10 @@
         <v>0.3193734750421919</v>
       </c>
       <c r="L428">
-        <v>0.1890044050243899</v>
+        <v>0.1890044050243901</v>
       </c>
       <c r="M428">
-        <v>0.1350891240582583</v>
+        <v>0.1350891240582588</v>
       </c>
       <c r="N428">
         <v>0.5</v>
@@ -19284,7 +19284,7 @@
         <v>0.216318625647247</v>
       </c>
       <c r="L429">
-        <v>-0.1083913934939571</v>
+        <v>-0.108391393493957</v>
       </c>
       <c r="M429">
         <v>0</v>
@@ -19328,7 +19328,7 @@
         <v>0.2473291383417033</v>
       </c>
       <c r="L430">
-        <v>0.04479730346303506</v>
+        <v>0.04479730346303509</v>
       </c>
       <c r="M430">
         <v>0</v>
@@ -19372,10 +19372,10 @@
         <v>0.2296191798461593</v>
       </c>
       <c r="L431">
-        <v>0.2036451968385616</v>
+        <v>0.2036451968385615</v>
       </c>
       <c r="M431">
-        <v>0.2359134020835043</v>
+        <v>0.2359134020835042</v>
       </c>
       <c r="N431">
         <v>0.5</v>
@@ -19460,7 +19460,7 @@
         <v>-0.58172667872988</v>
       </c>
       <c r="L433">
-        <v>2.349276650098422</v>
+        <v>2.349276650098421</v>
       </c>
       <c r="M433">
         <v>1</v>
@@ -19507,7 +19507,7 @@
         <v>-0.3701123279270359</v>
       </c>
       <c r="M434">
-        <v>0.5947504320095698</v>
+        <v>0.5947504320095697</v>
       </c>
       <c r="N434">
         <v>0.5</v>
@@ -19592,7 +19592,7 @@
         <v>-0.7979657040499387</v>
       </c>
       <c r="L436">
-        <v>-1.604146563954577</v>
+        <v>-1.604146563954578</v>
       </c>
       <c r="M436">
         <v>1</v>
@@ -19680,7 +19680,7 @@
         <v>-0.9116167667138086</v>
       </c>
       <c r="L438">
-        <v>-2.473512739726014</v>
+        <v>-2.473512739726015</v>
       </c>
       <c r="M438">
         <v>1</v>
@@ -19727,7 +19727,7 @@
         <v>-1.795849939125694</v>
       </c>
       <c r="M439">
-        <v>0.6778251079542509</v>
+        <v>0.6778251079542505</v>
       </c>
       <c r="N439">
         <v>0.5</v>
@@ -19771,7 +19771,7 @@
         <v>-2.074028378110679</v>
       </c>
       <c r="M440">
-        <v>0.8100768834243656</v>
+        <v>0.810076883424365</v>
       </c>
       <c r="N440">
         <v>0.5</v>
@@ -19815,7 +19815,7 @@
         <v>-2.011851631064613</v>
       </c>
       <c r="M441">
-        <v>0.7805167736624354</v>
+        <v>0.7805167736624351</v>
       </c>
       <c r="N441">
         <v>0.5</v>
@@ -19859,7 +19859,7 @@
         <v>-2.442675524448414</v>
       </c>
       <c r="M442">
-        <v>0.985339350936408</v>
+        <v>0.9853393509364073</v>
       </c>
       <c r="N442">
         <v>0.5</v>
@@ -19900,7 +19900,7 @@
         <v>-0.4657655305676618</v>
       </c>
       <c r="L443">
-        <v>-0.3678665868359565</v>
+        <v>-0.367866586835957</v>
       </c>
       <c r="M443">
         <v>0</v>
@@ -20032,7 +20032,7 @@
         <v>-0.723685912748345</v>
       </c>
       <c r="L446">
-        <v>-3.045902365792948</v>
+        <v>-3.045902365792949</v>
       </c>
       <c r="M446">
         <v>1</v>
@@ -20076,7 +20076,7 @@
         <v>-0.626049724723944</v>
       </c>
       <c r="L447">
-        <v>-4.714151698944893</v>
+        <v>-4.714151698944894</v>
       </c>
       <c r="M447">
         <v>1</v>
@@ -20164,10 +20164,10 @@
         <v>-0.8612752652750495</v>
       </c>
       <c r="L449">
-        <v>-5.828344095560785</v>
+        <v>-5.828344095560787</v>
       </c>
       <c r="M449">
-        <v>0.9680901926498973</v>
+        <v>0.9680901926498977</v>
       </c>
       <c r="N449">
         <v>0.5</v>
@@ -20208,10 +20208,10 @@
         <v>-0.8651721976758165</v>
       </c>
       <c r="L450">
-        <v>-3.158830768441805</v>
+        <v>-3.158830768441806</v>
       </c>
       <c r="M450">
-        <v>0.494811131065484</v>
+        <v>0.4948111310654842</v>
       </c>
       <c r="N450">
         <v>0.5</v>
@@ -20296,10 +20296,10 @@
         <v>-0.7074731788357141</v>
       </c>
       <c r="L452">
-        <v>-4.0841538668013</v>
+        <v>-4.084153866801301</v>
       </c>
       <c r="M452">
-        <v>0.6588620249887585</v>
+        <v>0.6588620249887587</v>
       </c>
       <c r="N452">
         <v>0.5</v>
@@ -20340,10 +20340,10 @@
         <v>-0.6634286707070437</v>
       </c>
       <c r="L453">
-        <v>-3.624043539350803</v>
+        <v>-3.624043539350802</v>
       </c>
       <c r="M453">
-        <v>0.2517557038351886</v>
+        <v>0.2517557038351884</v>
       </c>
       <c r="N453">
         <v>0.5</v>
@@ -20384,7 +20384,7 @@
         <v>0.4317761974091711</v>
       </c>
       <c r="L454">
-        <v>-0.3775938496083038</v>
+        <v>-0.3775938496083036</v>
       </c>
       <c r="M454">
         <v>0</v>
@@ -20428,7 +20428,7 @@
         <v>0.3893854869341831</v>
       </c>
       <c r="L455">
-        <v>-0.2425184051186837</v>
+        <v>-0.2425184051186841</v>
       </c>
       <c r="M455">
         <v>0</v>
@@ -20472,7 +20472,7 @@
         <v>0.7107806764421355</v>
       </c>
       <c r="L456">
-        <v>0.5315453081788911</v>
+        <v>0.5315453081788912</v>
       </c>
       <c r="M456">
         <v>1</v>
@@ -20560,7 +20560,7 @@
         <v>0.8554398480581578</v>
       </c>
       <c r="L458">
-        <v>1.995680076361312</v>
+        <v>1.995680076361311</v>
       </c>
       <c r="M458">
         <v>1</v>
@@ -20651,7 +20651,7 @@
         <v>1.363293696087931</v>
       </c>
       <c r="M460">
-        <v>0.4029582251260574</v>
+        <v>0.4029582251260573</v>
       </c>
       <c r="N460">
         <v>0.5</v>
@@ -20695,7 +20695,7 @@
         <v>1.452514977727147</v>
       </c>
       <c r="M461">
-        <v>0.4461833756829376</v>
+        <v>0.4461833756829374</v>
       </c>
       <c r="N461">
         <v>0.5</v>
@@ -20739,7 +20739,7 @@
         <v>1.923486774876884</v>
       </c>
       <c r="M462">
-        <v>0.6743556958493605</v>
+        <v>0.6743556958493604</v>
       </c>
       <c r="N462">
         <v>0.5</v>
@@ -20780,10 +20780,10 @@
         <v>0.4736540740524123</v>
       </c>
       <c r="L463">
-        <v>2.040894525358796</v>
+        <v>2.040894525358797</v>
       </c>
       <c r="M463">
-        <v>0.731236381688944</v>
+        <v>0.7312363816889442</v>
       </c>
       <c r="N463">
         <v>0.5</v>
@@ -20824,7 +20824,7 @@
         <v>0.2045228492935426</v>
       </c>
       <c r="L464">
-        <v>0.5068082672300956</v>
+        <v>0.5068082672300958</v>
       </c>
       <c r="M464">
         <v>0</v>
@@ -20868,7 +20868,7 @@
         <v>0.204555695875151</v>
       </c>
       <c r="L465">
-        <v>0.3806127962438661</v>
+        <v>0.3806127962438659</v>
       </c>
       <c r="M465">
         <v>0</v>
@@ -20912,7 +20912,7 @@
         <v>0.1797414146599359</v>
       </c>
       <c r="L466">
-        <v>0.2289724780361841</v>
+        <v>0.2289724780361838</v>
       </c>
       <c r="M466">
         <v>0</v>
@@ -20956,10 +20956,10 @@
         <v>0.08748074353933527</v>
       </c>
       <c r="L467">
-        <v>0.4221581722520309</v>
+        <v>0.422158172252031</v>
       </c>
       <c r="M467">
-        <v>0.08162734735401113</v>
+        <v>0.08162734735401125</v>
       </c>
       <c r="N467">
         <v>0.5</v>
@@ -21000,10 +21000,10 @@
         <v>-0.04653845721652421</v>
       </c>
       <c r="L468">
-        <v>0.4472306504501974</v>
+        <v>0.4472306504501976</v>
       </c>
       <c r="M468">
-        <v>0.0922212989155638</v>
+        <v>0.09222129891556395</v>
       </c>
       <c r="N468">
         <v>0.5</v>
@@ -21047,7 +21047,7 @@
         <v>1.790805126202677</v>
       </c>
       <c r="M469">
-        <v>0.8619756299529201</v>
+        <v>0.8619756299529199</v>
       </c>
       <c r="N469">
         <v>0.5</v>
@@ -21088,10 +21088,10 @@
         <v>0.5312839334123932</v>
       </c>
       <c r="L470">
-        <v>1.300250113289825</v>
+        <v>1.300250113289824</v>
       </c>
       <c r="M470">
-        <v>0.5912382582002438</v>
+        <v>0.5912382582002433</v>
       </c>
       <c r="N470">
         <v>0.5</v>
@@ -21135,7 +21135,7 @@
         <v>1.193849539563244</v>
       </c>
       <c r="M471">
-        <v>0.5325157685192975</v>
+        <v>0.5325157685192974</v>
       </c>
       <c r="N471">
         <v>0.5</v>
@@ -21179,7 +21179,7 @@
         <v>1.205997686044533</v>
       </c>
       <c r="M472">
-        <v>0.5392203320512882</v>
+        <v>0.5392203320512881</v>
       </c>
       <c r="N472">
         <v>0.5</v>
@@ -21223,7 +21223,7 @@
         <v>1.207851807253638</v>
       </c>
       <c r="M473">
-        <v>0.6267504590626947</v>
+        <v>0.6267504590626948</v>
       </c>
       <c r="N473">
         <v>0.5</v>
@@ -21267,7 +21267,7 @@
         <v>1.099460596110987</v>
       </c>
       <c r="M474">
-        <v>0.557350442825426</v>
+        <v>0.5573504428254259</v>
       </c>
       <c r="N474">
         <v>0.5</v>
@@ -21396,10 +21396,10 @@
         <v>0.6070049833466837</v>
       </c>
       <c r="L477">
-        <v>1.935571305525669</v>
+        <v>1.935571305525668</v>
       </c>
       <c r="M477">
-        <v>0.8857022298832649</v>
+        <v>0.8857022298832647</v>
       </c>
       <c r="N477">
         <v>0.5</v>
@@ -21440,10 +21440,10 @@
         <v>0.3177300284776977</v>
       </c>
       <c r="L478">
-        <v>2.011805926167078</v>
+        <v>2.011805926167077</v>
       </c>
       <c r="M478">
-        <v>0.8873422114888592</v>
+        <v>0.8873422114888584</v>
       </c>
       <c r="N478">
         <v>0.5</v>
@@ -21487,7 +21487,7 @@
         <v>1.644379241900886</v>
       </c>
       <c r="M479">
-        <v>0.529984974227901</v>
+        <v>0.5299849742279011</v>
       </c>
       <c r="N479">
         <v>0.5</v>
@@ -21531,7 +21531,7 @@
         <v>1.79720235208278</v>
       </c>
       <c r="M480">
-        <v>0.6786199176950541</v>
+        <v>0.6786199176950543</v>
       </c>
       <c r="N480">
         <v>0.5</v>
@@ -21619,7 +21619,7 @@
         <v>2.026937003808229</v>
       </c>
       <c r="M482">
-        <v>0.9020586170581012</v>
+        <v>0.9020586170581013</v>
       </c>
       <c r="N482">
         <v>0.5</v>
@@ -21663,7 +21663,7 @@
         <v>1.705724636512028</v>
       </c>
       <c r="M483">
-        <v>0.5896491784778</v>
+        <v>0.5896491784778001</v>
       </c>
       <c r="N483">
         <v>0.5</v>
@@ -21792,7 +21792,7 @@
         <v>-0.7203233994421427</v>
       </c>
       <c r="L486">
-        <v>-0.8709665078568267</v>
+        <v>-0.8709665078568266</v>
       </c>
       <c r="M486">
         <v>1</v>
@@ -21836,10 +21836,10 @@
         <v>-0.6863043566303376</v>
       </c>
       <c r="L487">
-        <v>-0.6205401084604288</v>
+        <v>-0.6205401084604287</v>
       </c>
       <c r="M487">
-        <v>0.2680117184523093</v>
+        <v>0.2680117184523091</v>
       </c>
       <c r="N487">
         <v>0.5</v>
@@ -21880,7 +21880,7 @@
         <v>-0.5834946521306549</v>
       </c>
       <c r="L488">
-        <v>0.3120947884386259</v>
+        <v>0.312094788438626</v>
       </c>
       <c r="M488">
         <v>0</v>
@@ -21968,7 +21968,7 @@
         <v>-0.7959387794230387</v>
       </c>
       <c r="L490">
-        <v>0.00371883381210728</v>
+        <v>0.003718833812107236</v>
       </c>
       <c r="M490">
         <v>0</v>
@@ -22012,7 +22012,7 @@
         <v>-0.8537940093428557</v>
       </c>
       <c r="L491">
-        <v>-0.2105750739787118</v>
+        <v>-0.2105750739787119</v>
       </c>
       <c r="M491">
         <v>0</v>
@@ -22056,10 +22056,10 @@
         <v>-0.4959486118658816</v>
       </c>
       <c r="L492">
-        <v>-0.8523100933553407</v>
+        <v>-0.8523100933553401</v>
       </c>
       <c r="M492">
-        <v>0.9717494601770844</v>
+        <v>0.9717494601770837</v>
       </c>
       <c r="N492">
         <v>0.5</v>
@@ -22141,7 +22141,7 @@
         <v>-0.02531634620862707</v>
       </c>
       <c r="K494">
-        <v>-0.2795145479710932</v>
+        <v>-0.2795145479710931</v>
       </c>
       <c r="L494">
         <v>-1.301843960609268</v>
@@ -22185,13 +22185,13 @@
         <v>0.02666940111406983</v>
       </c>
       <c r="K495">
-        <v>0.3081571031681937</v>
+        <v>0.3081571031681938</v>
       </c>
       <c r="L495">
-        <v>-0.6144070966018971</v>
+        <v>-0.6144070966018974</v>
       </c>
       <c r="M495">
-        <v>0.370057304455983</v>
+        <v>0.3700573044559832</v>
       </c>
       <c r="N495">
         <v>0.5</v>
@@ -22323,7 +22323,7 @@
         <v>0.3632865678993248</v>
       </c>
       <c r="M498">
-        <v>0.3484735929628073</v>
+        <v>0.3484735929628074</v>
       </c>
       <c r="N498">
         <v>0.5</v>
@@ -22364,7 +22364,7 @@
         <v>0.51688953472447</v>
       </c>
       <c r="L499">
-        <v>0.9267705856708991</v>
+        <v>0.926770585670899</v>
       </c>
       <c r="M499">
         <v>0.894571814897119</v>
@@ -22452,7 +22452,7 @@
         <v>0.5962073805301553</v>
       </c>
       <c r="L501">
-        <v>1.770906073216662</v>
+        <v>1.770906073216663</v>
       </c>
       <c r="M501">
         <v>1</v>
@@ -22499,7 +22499,7 @@
         <v>1.107455880344316</v>
       </c>
       <c r="M502">
-        <v>0.5286722083871831</v>
+        <v>0.5286722083871829</v>
       </c>
       <c r="N502">
         <v>0.5</v>
@@ -22540,7 +22540,7 @@
         <v>0.3080429958818785</v>
       </c>
       <c r="L503">
-        <v>0.122496508009623</v>
+        <v>0.1224965080096228</v>
       </c>
       <c r="M503">
         <v>0</v>
@@ -22584,7 +22584,7 @@
         <v>0.3014310114544749</v>
       </c>
       <c r="L504">
-        <v>-0.3607105813877812</v>
+        <v>-0.3607105813877811</v>
       </c>
       <c r="M504">
         <v>0</v>
@@ -22675,7 +22675,7 @@
         <v>1.906858879184659</v>
       </c>
       <c r="M506">
-        <v>0.8539270579727416</v>
+        <v>0.8539270579727413</v>
       </c>
       <c r="N506">
         <v>0.5</v>
@@ -22719,7 +22719,7 @@
         <v>2.03725248787137</v>
       </c>
       <c r="M507">
-        <v>0.9163284134614075</v>
+        <v>0.9163284134614073</v>
       </c>
       <c r="N507">
         <v>0.5</v>
@@ -22760,10 +22760,10 @@
         <v>0.9623941203773859</v>
       </c>
       <c r="L508">
-        <v>1.476499384855149</v>
+        <v>1.476499384855148</v>
       </c>
       <c r="M508">
-        <v>0.6479735908967503</v>
+        <v>0.6479735908967499</v>
       </c>
       <c r="N508">
         <v>0.5</v>
@@ -22804,10 +22804,10 @@
         <v>0.9507399756254367</v>
       </c>
       <c r="L509">
-        <v>0.4785526070832765</v>
+        <v>0.4785526070832766</v>
       </c>
       <c r="M509">
-        <v>0.1703947259070454</v>
+        <v>0.1703947259070455</v>
       </c>
       <c r="N509">
         <v>0.5</v>
@@ -22851,7 +22851,7 @@
         <v>1.283824853460814</v>
       </c>
       <c r="M510">
-        <v>0.5557669862307402</v>
+        <v>0.5557669862307399</v>
       </c>
       <c r="N510">
         <v>0.5</v>
@@ -22892,10 +22892,10 @@
         <v>0.8636240981756537</v>
       </c>
       <c r="L511">
-        <v>0.7953413814953211</v>
+        <v>0.7953413814953205</v>
       </c>
       <c r="M511">
-        <v>0.3219976236717684</v>
+        <v>0.3219976236717682</v>
       </c>
       <c r="N511">
         <v>0.5</v>
@@ -22936,10 +22936,10 @@
         <v>0.8898969160778009</v>
       </c>
       <c r="L512">
-        <v>0.6971798282006151</v>
+        <v>0.6971798282006154</v>
       </c>
       <c r="M512">
-        <v>0.2750212876062506</v>
+        <v>0.2750212876062508</v>
       </c>
       <c r="N512">
         <v>0.5</v>
@@ -22980,10 +22980,10 @@
         <v>0.9013718051943823</v>
       </c>
       <c r="L513">
-        <v>0.6736668965554202</v>
+        <v>0.6736668965554199</v>
       </c>
       <c r="M513">
-        <v>0.1125525376523373</v>
+        <v>0.1125525376523371</v>
       </c>
       <c r="N513">
         <v>0.5</v>
@@ -23027,7 +23027,7 @@
         <v>1.163319433474475</v>
       </c>
       <c r="M514">
-        <v>0.395010761226027</v>
+        <v>0.3950107612260269</v>
       </c>
       <c r="N514">
         <v>0.5</v>
@@ -23068,10 +23068,10 @@
         <v>0.9020621458308109</v>
       </c>
       <c r="L515">
-        <v>1.104109405976329</v>
+        <v>1.104109405976328</v>
       </c>
       <c r="M515">
-        <v>0.4013324223626453</v>
+        <v>0.4013324223626447</v>
       </c>
       <c r="N515">
         <v>0.5</v>
@@ -23112,10 +23112,10 @@
         <v>0.9332503974272917</v>
       </c>
       <c r="L516">
-        <v>1.895590737238607</v>
+        <v>1.895590737238608</v>
       </c>
       <c r="M516">
-        <v>0.9091154414144577</v>
+        <v>0.9091154414144581</v>
       </c>
       <c r="N516">
         <v>0.5</v>
@@ -23159,7 +23159,7 @@
         <v>1.704582703454883</v>
       </c>
       <c r="M517">
-        <v>0.8652061439145704</v>
+        <v>0.8652061439145696</v>
       </c>
       <c r="N517">
         <v>0.5</v>
@@ -23200,7 +23200,7 @@
         <v>0.5236863864338169</v>
       </c>
       <c r="L518">
-        <v>2.033225695343745</v>
+        <v>2.033225695343747</v>
       </c>
       <c r="M518">
         <v>1</v>
@@ -23244,7 +23244,7 @@
         <v>0.2454956012242948</v>
       </c>
       <c r="L519">
-        <v>-0.6995650234375</v>
+        <v>-0.6995650234374999</v>
       </c>
       <c r="M519">
         <v>1</v>
@@ -23288,7 +23288,7 @@
         <v>0.3135588279529212</v>
       </c>
       <c r="L520">
-        <v>-0.01494015217218921</v>
+        <v>-0.0149401521721896</v>
       </c>
       <c r="M520">
         <v>0</v>
@@ -23332,7 +23332,7 @@
         <v>0.2396971590511883</v>
       </c>
       <c r="L521">
-        <v>0.4663273732035961</v>
+        <v>0.466327373203596</v>
       </c>
       <c r="M521">
         <v>0</v>
@@ -23379,7 +23379,7 @@
         <v>1.014225673464089</v>
       </c>
       <c r="M522">
-        <v>0.3496706152012121</v>
+        <v>0.349670615201212</v>
       </c>
       <c r="N522">
         <v>0.5</v>
@@ -23420,7 +23420,7 @@
         <v>-0.05207780574680237</v>
       </c>
       <c r="L523">
-        <v>0.2116608085213907</v>
+        <v>0.2116608085213906</v>
       </c>
       <c r="M523">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0.2749416594420057</v>
       </c>
       <c r="M524">
-        <v>0.03473982803379893</v>
+        <v>0.03473982803379891</v>
       </c>
       <c r="N524">
         <v>0.5</v>
@@ -23508,10 +23508,10 @@
         <v>-0.4325215157409301</v>
       </c>
       <c r="L525">
-        <v>-0.692014618624846</v>
+        <v>-0.6920146186248461</v>
       </c>
       <c r="M525">
-        <v>0.9889714716342404</v>
+        <v>0.9889714716342407</v>
       </c>
       <c r="N525">
         <v>0.5</v>
@@ -23596,10 +23596,10 @@
         <v>-0.62833339080468</v>
       </c>
       <c r="L527">
-        <v>-0.8998685955402821</v>
+        <v>-0.8998685955402823</v>
       </c>
       <c r="M527">
-        <v>0.64370561530228</v>
+        <v>0.6437056153022802</v>
       </c>
       <c r="N527">
         <v>0.5</v>
@@ -23640,10 +23640,10 @@
         <v>-0.5814739663024168</v>
       </c>
       <c r="L528">
-        <v>-0.6607930578212121</v>
+        <v>-0.6607930578212122</v>
       </c>
       <c r="M528">
-        <v>0.4697997280359082</v>
+        <v>0.4697997280359083</v>
       </c>
       <c r="N528">
         <v>0.5</v>
@@ -23684,10 +23684,10 @@
         <v>-0.2412342876962354</v>
       </c>
       <c r="L529">
-        <v>-0.02600476106757411</v>
+        <v>-0.02600476106757414</v>
       </c>
       <c r="M529">
-        <v>0.00804850485986721</v>
+        <v>0.008048504859866953</v>
       </c>
       <c r="N529">
         <v>0.5</v>
@@ -23728,10 +23728,10 @@
         <v>-0.266802079740422</v>
       </c>
       <c r="L530">
-        <v>-0.215821552522821</v>
+        <v>-0.2158215525228209</v>
       </c>
       <c r="M530">
-        <v>0.1391949037305817</v>
+        <v>0.1391949037305816</v>
       </c>
       <c r="N530">
         <v>0.5</v>
@@ -23772,10 +23772,10 @@
         <v>-0.3505753267054677</v>
       </c>
       <c r="L531">
-        <v>-0.8120320493621451</v>
+        <v>-0.8120320493621449</v>
       </c>
       <c r="M531">
-        <v>0.5764031300127042</v>
+        <v>0.576403130012704</v>
       </c>
       <c r="N531">
         <v>0.5</v>
@@ -23863,7 +23863,7 @@
         <v>-1.75731113166012</v>
       </c>
       <c r="M533">
-        <v>0.8820296141069743</v>
+        <v>0.8820296141069748</v>
       </c>
       <c r="N533">
         <v>0.5</v>
@@ -23948,10 +23948,10 @@
         <v>-0.09775432347534406</v>
       </c>
       <c r="L535">
-        <v>-1.434087932676533</v>
+        <v>-1.434087932676531</v>
       </c>
       <c r="M535">
-        <v>0.5430059989425403</v>
+        <v>0.5430059989425398</v>
       </c>
       <c r="N535">
         <v>0.5</v>
@@ -23995,7 +23995,7 @@
         <v>-1.565680359831145</v>
       </c>
       <c r="M536">
-        <v>0.5937526301083075</v>
+        <v>0.5937526301083076</v>
       </c>
       <c r="N536">
         <v>0.5</v>
@@ -24036,10 +24036,10 @@
         <v>0.3278282233785168</v>
       </c>
       <c r="L537">
-        <v>-0.1001809796474803</v>
+        <v>-0.1001809796474809</v>
       </c>
       <c r="M537">
-        <v>0.02860493788995293</v>
+        <v>0.02860493788995316</v>
       </c>
       <c r="N537">
         <v>0.5</v>
@@ -24080,7 +24080,7 @@
         <v>0.4343216968056641</v>
       </c>
       <c r="L538">
-        <v>0.7292574050870944</v>
+        <v>0.7292574050870942</v>
       </c>
       <c r="M538">
         <v>1</v>
@@ -24168,7 +24168,7 @@
         <v>0.1171243723418764</v>
       </c>
       <c r="L540">
-        <v>0.986696905944037</v>
+        <v>0.9866969059440371</v>
       </c>
       <c r="M540">
         <v>1</v>
@@ -24215,7 +24215,7 @@
         <v>0.8396725770979687</v>
       </c>
       <c r="M541">
-        <v>0.4288975531856368</v>
+        <v>0.4288975531856369</v>
       </c>
       <c r="N541">
         <v>0.5</v>
@@ -24303,7 +24303,7 @@
         <v>1.590025546902945</v>
       </c>
       <c r="M543">
-        <v>0.541014100721487</v>
+        <v>0.5410141007214871</v>
       </c>
       <c r="N543">
         <v>0.5</v>
@@ -24347,7 +24347,7 @@
         <v>1.321031135153267</v>
       </c>
       <c r="M544">
-        <v>0.371944449206676</v>
+        <v>0.3719444492066761</v>
       </c>
       <c r="N544">
         <v>0.5</v>
@@ -24391,7 +24391,7 @@
         <v>1.529096915778889</v>
       </c>
       <c r="M545">
-        <v>0.5027189466905373</v>
+        <v>0.5027189466905376</v>
       </c>
       <c r="N545">
         <v>0.5</v>
@@ -24476,10 +24476,10 @@
         <v>0.5896705732103417</v>
       </c>
       <c r="L547">
-        <v>2.534053567713783</v>
+        <v>2.534053567713782</v>
       </c>
       <c r="M547">
-        <v>0.9552150228226652</v>
+        <v>0.955215022822665</v>
       </c>
       <c r="N547">
         <v>0.5</v>
@@ -24567,7 +24567,7 @@
         <v>2.389678955631198</v>
       </c>
       <c r="M549">
-        <v>0.8712804005022114</v>
+        <v>0.8712804005022111</v>
       </c>
       <c r="N549">
         <v>0.5</v>
@@ -24696,10 +24696,10 @@
         <v>0.1518360413539479</v>
       </c>
       <c r="L552">
-        <v>1.392356355100221</v>
+        <v>1.39235635510022</v>
       </c>
       <c r="M552">
-        <v>0.05496534664011722</v>
+        <v>0.05496534664011688</v>
       </c>
       <c r="N552">
         <v>0.5</v>
@@ -24740,7 +24740,7 @@
         <v>-0.2846694153295459</v>
       </c>
       <c r="L553">
-        <v>-0.01549901888899447</v>
+        <v>-0.01549901888899242</v>
       </c>
       <c r="M553">
         <v>1</v>
@@ -24784,7 +24784,7 @@
         <v>0.04739287087914681</v>
       </c>
       <c r="L554">
-        <v>0.1989045271852105</v>
+        <v>0.1989045271852103</v>
       </c>
       <c r="M554">
         <v>0</v>
@@ -24828,10 +24828,10 @@
         <v>0.1772041332015405</v>
       </c>
       <c r="L555">
-        <v>0.8536132023215147</v>
+        <v>0.8536132023215149</v>
       </c>
       <c r="M555">
-        <v>0.2705668944888504</v>
+        <v>0.2705668944888506</v>
       </c>
       <c r="N555">
         <v>0.5</v>
@@ -24919,7 +24919,7 @@
         <v>1.152441634164806</v>
       </c>
       <c r="M557">
-        <v>0.4352511580372889</v>
+        <v>0.435251158037289</v>
       </c>
       <c r="N557">
         <v>0.5</v>
@@ -24963,7 +24963,7 @@
         <v>1.306336656682073</v>
       </c>
       <c r="M558">
-        <v>0.5054980171018394</v>
+        <v>0.5054980171018396</v>
       </c>
       <c r="N558">
         <v>0.5</v>
@@ -25004,10 +25004,10 @@
         <v>0.2252091116317312</v>
       </c>
       <c r="L559">
-        <v>1.394788009579301</v>
+        <v>1.394788009579302</v>
       </c>
       <c r="M559">
-        <v>0.7396468921007314</v>
+        <v>0.7396468921007315</v>
       </c>
       <c r="N559">
         <v>0.5</v>
@@ -25051,7 +25051,7 @@
         <v>1.218042825917644</v>
       </c>
       <c r="M560">
-        <v>0.6303310367404701</v>
+        <v>0.6303310367404702</v>
       </c>
       <c r="N560">
         <v>0.5</v>
@@ -25136,10 +25136,10 @@
         <v>0.3275013665730031</v>
       </c>
       <c r="L562">
-        <v>1.40455489072827</v>
+        <v>1.404554890728271</v>
       </c>
       <c r="M562">
-        <v>0.9838680578811702</v>
+        <v>0.9838680578811704</v>
       </c>
       <c r="N562">
         <v>0.5</v>
@@ -25180,7 +25180,7 @@
         <v>-0.02985810328845922</v>
       </c>
       <c r="L563">
-        <v>1.621448486126744</v>
+        <v>1.621448486126745</v>
       </c>
       <c r="M563">
         <v>1</v>
@@ -25268,7 +25268,7 @@
         <v>-0.3391137314519767</v>
       </c>
       <c r="L565">
-        <v>0.5728731776335916</v>
+        <v>0.5728731776335917</v>
       </c>
       <c r="M565">
         <v>0</v>
@@ -25400,7 +25400,7 @@
         <v>-0.4486025336058944</v>
       </c>
       <c r="L568">
-        <v>-0.4577250590958287</v>
+        <v>-0.4577250590958288</v>
       </c>
       <c r="M568">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>-0.4033519053985318</v>
       </c>
       <c r="L569">
-        <v>-0.5933857865847216</v>
+        <v>-0.5933857865847213</v>
       </c>
       <c r="M569">
-        <v>0.3043021015899642</v>
+        <v>0.3043021015899633</v>
       </c>
       <c r="N569">
         <v>0.5</v>
@@ -25488,7 +25488,7 @@
         <v>-0.1833058693381696</v>
       </c>
       <c r="L570">
-        <v>-0.327557385633587</v>
+        <v>-0.3275573856335867</v>
       </c>
       <c r="M570">
         <v>0</v>
@@ -25532,7 +25532,7 @@
         <v>-0.2979486892933333</v>
       </c>
       <c r="L571">
-        <v>-0.9783728570162399</v>
+        <v>-0.9783728570162397</v>
       </c>
       <c r="M571">
         <v>1</v>
@@ -25620,10 +25620,10 @@
         <v>0.1903687634877954</v>
       </c>
       <c r="L573">
-        <v>-0.5494536406328711</v>
+        <v>-0.5494536406328709</v>
       </c>
       <c r="M573">
-        <v>0.1628140392597425</v>
+        <v>0.1628140392597426</v>
       </c>
       <c r="N573">
         <v>0.5</v>
@@ -25664,7 +25664,7 @@
         <v>0.1884657697399135</v>
       </c>
       <c r="L574">
-        <v>-0.2143818579859519</v>
+        <v>-0.2143818579859516</v>
       </c>
       <c r="M574">
         <v>0</v>
@@ -25711,7 +25711,7 @@
         <v>-0.9481502491281102</v>
       </c>
       <c r="M575">
-        <v>0.4971138227402992</v>
+        <v>0.4971138227402995</v>
       </c>
       <c r="N575">
         <v>0.5</v>
@@ -25752,10 +25752,10 @@
         <v>0.3474738536035597</v>
       </c>
       <c r="L576">
-        <v>-0.321856921993149</v>
+        <v>-0.3218569219931495</v>
       </c>
       <c r="M576">
-        <v>0.07281226687172085</v>
+        <v>0.07281226687172139</v>
       </c>
       <c r="N576">
         <v>0.5</v>
@@ -25796,7 +25796,7 @@
         <v>0.3219800665395638</v>
       </c>
       <c r="L577">
-        <v>0.4656139302908194</v>
+        <v>0.4656139302908193</v>
       </c>
       <c r="M577">
         <v>1</v>
@@ -25928,10 +25928,10 @@
         <v>-0.1778064939674097</v>
       </c>
       <c r="L580">
-        <v>0.7412842614175642</v>
+        <v>0.7412842614175641</v>
       </c>
       <c r="M580">
-        <v>0.5130067188001928</v>
+        <v>0.5130067188001926</v>
       </c>
       <c r="N580">
         <v>0.5</v>
@@ -26016,7 +26016,7 @@
         <v>-0.2818990845202081</v>
       </c>
       <c r="L582">
-        <v>0.281915813840252</v>
+        <v>0.2819158138402521</v>
       </c>
       <c r="M582">
         <v>0</v>
@@ -26104,10 +26104,10 @@
         <v>-0.3639108744903806</v>
       </c>
       <c r="L584">
-        <v>-0.01667379066308921</v>
+        <v>-0.01667379066308931</v>
       </c>
       <c r="M584">
-        <v>0.002632956301653972</v>
+        <v>0.002632956301654088</v>
       </c>
       <c r="N584">
         <v>0.5</v>
@@ -26192,7 +26192,7 @@
         <v>-0.1068042806220244</v>
       </c>
       <c r="L586">
-        <v>0.7188525385739505</v>
+        <v>0.7188525385739506</v>
       </c>
       <c r="M586">
         <v>0.4130329006881726</v>
@@ -26236,10 +26236,10 @@
         <v>-0.1923478663643391</v>
       </c>
       <c r="L587">
-        <v>0.6311874064670564</v>
+        <v>0.6311874064670561</v>
       </c>
       <c r="M587">
-        <v>0.3301637305002226</v>
+        <v>0.3301637305002222</v>
       </c>
       <c r="N587">
         <v>0.5</v>
@@ -26283,7 +26283,7 @@
         <v>0.96053685682622</v>
       </c>
       <c r="M588">
-        <v>0.641495214263252</v>
+        <v>0.6414952142632518</v>
       </c>
       <c r="N588">
         <v>0.5</v>
@@ -26324,10 +26324,10 @@
         <v>0.1636267140231635</v>
       </c>
       <c r="L589">
-        <v>0.9217856962822057</v>
+        <v>0.9217856962822055</v>
       </c>
       <c r="M589">
-        <v>0.6048640424287438</v>
+        <v>0.6048640424287435</v>
       </c>
       <c r="N589">
         <v>0.5</v>
@@ -26368,10 +26368,10 @@
         <v>0.1668541278720438</v>
       </c>
       <c r="L590">
-        <v>0.9301870969129996</v>
+        <v>0.9301870969129995</v>
       </c>
       <c r="M590">
-        <v>0.6128058213545028</v>
+        <v>0.6128058213545026</v>
       </c>
       <c r="N590">
         <v>0.5</v>
@@ -26415,7 +26415,7 @@
         <v>0.582681365379447</v>
       </c>
       <c r="M591">
-        <v>0.2843113456645796</v>
+        <v>0.2843113456645794</v>
       </c>
       <c r="N591">
         <v>0.5</v>
@@ -26544,7 +26544,7 @@
         <v>0.8328785106387614</v>
       </c>
       <c r="L594">
-        <v>1.685789373478999</v>
+        <v>1.685789373479</v>
       </c>
       <c r="M594">
         <v>1</v>
@@ -26591,7 +26591,7 @@
         <v>1.241267635562731</v>
       </c>
       <c r="M595">
-        <v>0.6237924687987108</v>
+        <v>0.6237924687987103</v>
       </c>
       <c r="N595">
         <v>0.5</v>
@@ -26635,7 +26635,7 @@
         <v>1.247603299427004</v>
       </c>
       <c r="M596">
-        <v>0.6291544663290732</v>
+        <v>0.6291544663290727</v>
       </c>
       <c r="N596">
         <v>0.5</v>
@@ -26679,7 +26679,7 @@
         <v>0.9646618689219904</v>
       </c>
       <c r="M597">
-        <v>0.3896955423542398</v>
+        <v>0.3896955423542395</v>
       </c>
       <c r="N597">
         <v>0.5</v>
@@ -26723,7 +26723,7 @@
         <v>0.7728413573660569</v>
       </c>
       <c r="M598">
-        <v>0.2273540527692708</v>
+        <v>0.2273540527692707</v>
       </c>
       <c r="N598">
         <v>0.5</v>
@@ -26808,10 +26808,10 @@
         <v>0.03394958506719822</v>
       </c>
       <c r="L600">
-        <v>0.7641285108137814</v>
+        <v>0.7641285108137819</v>
       </c>
       <c r="M600">
-        <v>0.2945172503639475</v>
+        <v>0.2945172503639478</v>
       </c>
       <c r="N600">
         <v>0.5</v>
@@ -26855,7 +26855,7 @@
         <v>1.033706463651106</v>
       </c>
       <c r="M601">
-        <v>0.5008649462604322</v>
+        <v>0.5008649462604319</v>
       </c>
       <c r="N601">
         <v>0.5</v>
@@ -26899,7 +26899,7 @@
         <v>1.312386797711862</v>
       </c>
       <c r="M602">
-        <v>0.7141800346044728</v>
+        <v>0.7141800346044724</v>
       </c>
       <c r="N602">
         <v>0.5</v>
@@ -26943,7 +26943,7 @@
         <v>1.050900968159419</v>
       </c>
       <c r="M603">
-        <v>0.5140264320200375</v>
+        <v>0.5140264320200373</v>
       </c>
       <c r="N603">
         <v>0.5</v>
@@ -26984,10 +26984,10 @@
         <v>0.02653429526898257</v>
       </c>
       <c r="L604">
-        <v>0.8858193095814569</v>
+        <v>0.8858193095814568</v>
       </c>
       <c r="M604">
-        <v>0.5428114982135409</v>
+        <v>0.5428114982135407</v>
       </c>
       <c r="N604">
         <v>0.5</v>
@@ -27163,7 +27163,7 @@
         <v>1.251637733264023</v>
       </c>
       <c r="M608">
-        <v>0.5496863059699361</v>
+        <v>0.549686305969936</v>
       </c>
       <c r="N608">
         <v>0.5</v>
@@ -27207,7 +27207,7 @@
         <v>1.457545867407269</v>
       </c>
       <c r="M609">
-        <v>0.5768416190566833</v>
+        <v>0.5768416190566835</v>
       </c>
       <c r="N609">
         <v>0.5</v>
@@ -27248,7 +27248,7 @@
         <v>0.5817540532541767</v>
       </c>
       <c r="L610">
-        <v>0.6023229446914069</v>
+        <v>0.6023229446914071</v>
       </c>
       <c r="M610">
         <v>0</v>
@@ -27292,7 +27292,7 @@
         <v>0.6085203009952733</v>
       </c>
       <c r="L611">
-        <v>0.2719842535918982</v>
+        <v>0.2719842535918983</v>
       </c>
       <c r="M611">
         <v>0</v>
@@ -27336,10 +27336,10 @@
         <v>0.678936137627149</v>
       </c>
       <c r="L612">
-        <v>0.2841076785224901</v>
+        <v>0.2841076785224902</v>
       </c>
       <c r="M612">
-        <v>0.007155682496185682</v>
+        <v>0.007155682496185651</v>
       </c>
       <c r="N612">
         <v>0.5</v>
@@ -27383,7 +27383,7 @@
         <v>0.9061072624763895</v>
       </c>
       <c r="M613">
-        <v>0.3742822627336386</v>
+        <v>0.3742822627336385</v>
       </c>
       <c r="N613">
         <v>0.5</v>
@@ -27427,7 +27427,7 @@
         <v>1.560559260001253</v>
       </c>
       <c r="M614">
-        <v>0.7605634275112039</v>
+        <v>0.7605634275112038</v>
       </c>
       <c r="N614">
         <v>0.5</v>
@@ -27468,10 +27468,10 @@
         <v>0.868100690516598</v>
       </c>
       <c r="L615">
-        <v>0.6936593137522102</v>
+        <v>0.6936593137522101</v>
       </c>
       <c r="M615">
-        <v>0.2488878237248973</v>
+        <v>0.2488878237248972</v>
       </c>
       <c r="N615">
         <v>0.5</v>
@@ -27512,10 +27512,10 @@
         <v>0.9104738012338522</v>
       </c>
       <c r="L616">
-        <v>0.7896923947570781</v>
+        <v>0.7896923947570776</v>
       </c>
       <c r="M616">
-        <v>0.3055700105438461</v>
+        <v>0.3055700105438459</v>
       </c>
       <c r="N616">
         <v>0.5</v>
@@ -27556,10 +27556,10 @@
         <v>0.9094195857143437</v>
       </c>
       <c r="L617">
-        <v>0.6513668609951179</v>
+        <v>0.6513668609951181</v>
       </c>
       <c r="M617">
-        <v>0.2944202747346297</v>
+        <v>0.2944202747346299</v>
       </c>
       <c r="N617">
         <v>0.5</v>
@@ -27600,10 +27600,10 @@
         <v>0.9108153939801542</v>
       </c>
       <c r="L618">
-        <v>0.5962719954643202</v>
+        <v>0.5962719954643206</v>
       </c>
       <c r="M618">
-        <v>0.2516638459223708</v>
+        <v>0.2516638459223711</v>
       </c>
       <c r="N618">
         <v>0.5</v>
@@ -27644,10 +27644,10 @@
         <v>0.9986247311998184</v>
       </c>
       <c r="L619">
-        <v>0.8725463164113481</v>
+        <v>0.8725463164113469</v>
       </c>
       <c r="M619">
-        <v>0.4660668256269616</v>
+        <v>0.4660668256269606</v>
       </c>
       <c r="N619">
         <v>0.5</v>
@@ -27688,10 +27688,10 @@
         <v>0.9984685323092539</v>
       </c>
       <c r="L620">
-        <v>0.5228628488087066</v>
+        <v>0.5228628488087088</v>
       </c>
       <c r="M620">
-        <v>0.1946945998245671</v>
+        <v>0.1946945998245687</v>
       </c>
       <c r="N620">
         <v>0.5</v>
@@ -27732,10 +27732,10 @@
         <v>0.9527431699625032</v>
       </c>
       <c r="L621">
-        <v>0.7901052489530395</v>
+        <v>0.79010524895304</v>
       </c>
       <c r="M621">
-        <v>0.3964095291764638</v>
+        <v>0.3964095291764644</v>
       </c>
       <c r="N621">
         <v>0.5</v>
@@ -27776,7 +27776,7 @@
         <v>0.9472392414223022</v>
       </c>
       <c r="L622">
-        <v>0.227666892555201</v>
+        <v>0.2276668925552011</v>
       </c>
       <c r="M622">
         <v>0</v>
@@ -27820,10 +27820,10 @@
         <v>0.9590144639531654</v>
       </c>
       <c r="L623">
-        <v>0.7998384641395453</v>
+        <v>0.7998384641395496</v>
       </c>
       <c r="M623">
-        <v>0.4292706489727142</v>
+        <v>0.4292706489727173</v>
       </c>
       <c r="N623">
         <v>0.5</v>
@@ -27911,7 +27911,7 @@
         <v>1.503962925280347</v>
       </c>
       <c r="M625">
-        <v>0.8998591249780477</v>
+        <v>0.8998591249780478</v>
       </c>
       <c r="N625">
         <v>0.5</v>
@@ -27996,10 +27996,10 @@
         <v>0.2730638651945731</v>
       </c>
       <c r="L627">
-        <v>0.7437779308415494</v>
+        <v>0.7437779308415492</v>
       </c>
       <c r="M627">
-        <v>0.36388675933766</v>
+        <v>0.3638867593376597</v>
       </c>
       <c r="N627">
         <v>0.5</v>
@@ -28084,10 +28084,10 @@
         <v>0.3087854950975487</v>
       </c>
       <c r="L629">
-        <v>1.579597642262725</v>
+        <v>1.579597642262724</v>
       </c>
       <c r="M629">
-        <v>0.9531857737308472</v>
+        <v>0.9531857737308469</v>
       </c>
       <c r="N629">
         <v>0.5</v>
@@ -28128,7 +28128,7 @@
         <v>-0.620679447221102</v>
       </c>
       <c r="L630">
-        <v>-0.2013066003280283</v>
+        <v>-0.2013066003280284</v>
       </c>
       <c r="M630">
         <v>1</v>
@@ -28219,7 +28219,7 @@
         <v>0.6202522524106652</v>
       </c>
       <c r="M632">
-        <v>0.3393779548040107</v>
+        <v>0.3393779548040108</v>
       </c>
       <c r="N632">
         <v>0.5</v>
@@ -28260,10 +28260,10 @@
         <v>-0.3295960674306199</v>
       </c>
       <c r="L633">
-        <v>0.7271643562616128</v>
+        <v>0.7271643562616129</v>
       </c>
       <c r="M633">
-        <v>0.4082338656222814</v>
+        <v>0.4082338656222815</v>
       </c>
       <c r="N633">
         <v>0.5</v>
@@ -28298,16 +28298,16 @@
         <v>23</v>
       </c>
       <c r="J634">
-        <v>-2.457397934955798e-06</v>
+        <v>-2.457397934955798E-06</v>
       </c>
       <c r="K634">
         <v>-0.2454352666016311</v>
       </c>
       <c r="L634">
-        <v>0.7526708276829344</v>
+        <v>0.7526708276829343</v>
       </c>
       <c r="M634">
-        <v>0.4436321948059977</v>
+        <v>0.4436321948059978</v>
       </c>
       <c r="N634">
         <v>0.5</v>
@@ -28348,7 +28348,7 @@
         <v>-0.3061128877956745</v>
       </c>
       <c r="L635">
-        <v>0.3441110959681339</v>
+        <v>0.3441110959681338</v>
       </c>
       <c r="M635">
         <v>0.1687475530008786</v>
@@ -28392,7 +28392,7 @@
         <v>-0.3424459097394618</v>
       </c>
       <c r="L636">
-        <v>-0.2337937940953853</v>
+        <v>-0.2337937940953856</v>
       </c>
       <c r="M636">
         <v>1</v>
@@ -28436,7 +28436,7 @@
         <v>-0.4196093554897475</v>
       </c>
       <c r="L637">
-        <v>-0.5852654391504549</v>
+        <v>-0.585265439150455</v>
       </c>
       <c r="M637">
         <v>1</v>
@@ -28568,7 +28568,7 @@
         <v>-0.2649587970384197</v>
       </c>
       <c r="L640">
-        <v>-0.7210070570424021</v>
+        <v>-0.7210070570424022</v>
       </c>
       <c r="M640">
         <v>0.1343061778461457</v>
@@ -28615,7 +28615,7 @@
         <v>-0.5326233717833799</v>
       </c>
       <c r="M641">
-        <v>0.08237595619603845</v>
+        <v>0.08237595619603838</v>
       </c>
       <c r="N641">
         <v>0.5</v>
@@ -28656,7 +28656,7 @@
         <v>-0.7405915839778725</v>
       </c>
       <c r="L642">
-        <v>-0.04361931989565235</v>
+        <v>-0.04361931989565249</v>
       </c>
       <c r="M642">
         <v>0</v>
@@ -28744,7 +28744,7 @@
         <v>-0.9069250932217648</v>
       </c>
       <c r="L644">
-        <v>-0.7059543017436608</v>
+        <v>-0.705954301743661</v>
       </c>
       <c r="M644">
         <v>0.173485782626949</v>
@@ -28832,10 +28832,10 @@
         <v>-0.7403358794115079</v>
       </c>
       <c r="L646">
-        <v>-0.9689269964376983</v>
+        <v>-0.9689269964376986</v>
       </c>
       <c r="M646">
-        <v>0.2423663717530448</v>
+        <v>0.2423663717530449</v>
       </c>
       <c r="N646">
         <v>0.5</v>
@@ -28876,10 +28876,10 @@
         <v>-0.6375318887516154</v>
       </c>
       <c r="L647">
-        <v>-0.7727483451666064</v>
+        <v>-0.7727483451666067</v>
       </c>
       <c r="M647">
-        <v>0.1909811848261752</v>
+        <v>0.1909811848261753</v>
       </c>
       <c r="N647">
         <v>0.5</v>
@@ -28920,10 +28920,10 @@
         <v>-0.6016239349822702</v>
       </c>
       <c r="L648">
-        <v>-0.8740939779015462</v>
+        <v>-0.8740939779015465</v>
       </c>
       <c r="M648">
-        <v>0.2175267046804762</v>
+        <v>0.2175267046804763</v>
       </c>
       <c r="N648">
         <v>0.5</v>
@@ -29008,10 +29008,10 @@
         <v>-0.4432573889978563</v>
       </c>
       <c r="L650">
-        <v>-0.5715493593083514</v>
+        <v>-0.5715493593083516</v>
       </c>
       <c r="M650">
-        <v>0.5166679628804473</v>
+        <v>0.5166679628804475</v>
       </c>
       <c r="N650">
         <v>0.5</v>
@@ -29052,10 +29052,10 @@
         <v>-0.4346631034743227</v>
       </c>
       <c r="L651">
-        <v>-0.5850006237029248</v>
+        <v>-0.585000623702925</v>
       </c>
       <c r="M651">
-        <v>0.5298322779488641</v>
+        <v>0.5298322779488643</v>
       </c>
       <c r="N651">
         <v>0.5</v>
@@ -29096,7 +29096,7 @@
         <v>-0.37746070600091</v>
       </c>
       <c r="L652">
-        <v>-0.1705211527747401</v>
+        <v>-0.1705211527747413</v>
       </c>
       <c r="M652">
         <v>0</v>
@@ -29187,7 +29187,7 @@
         <v>-1.103318255778301</v>
       </c>
       <c r="M654">
-        <v>0.8877212977385329</v>
+        <v>0.8877212977385323</v>
       </c>
       <c r="N654">
         <v>0.5</v>
@@ -29228,7 +29228,7 @@
         <v>-0.2800824930621064</v>
       </c>
       <c r="L655">
-        <v>-2.698057440904774</v>
+        <v>-2.698057440904773</v>
       </c>
       <c r="M655">
         <v>1</v>
@@ -29272,10 +29272,10 @@
         <v>-0.1792923575895583</v>
       </c>
       <c r="L656">
-        <v>-0.6899640772754393</v>
+        <v>-0.6899640772754391</v>
       </c>
       <c r="M656">
-        <v>0.2055135378036462</v>
+        <v>0.2055135378036458</v>
       </c>
       <c r="N656">
         <v>0.5</v>
@@ -29316,7 +29316,7 @@
         <v>-0.2263301672428907</v>
       </c>
       <c r="L657">
-        <v>0.03047475228281429</v>
+        <v>0.03047475228281411</v>
       </c>
       <c r="M657">
         <v>1</v>
@@ -29360,7 +29360,7 @@
         <v>-0.2641472981659246</v>
       </c>
       <c r="L658">
-        <v>0.4149082311970825</v>
+        <v>0.4149082311970822</v>
       </c>
       <c r="M658">
         <v>1</v>
@@ -29404,7 +29404,7 @@
         <v>-0.2061760078478266</v>
       </c>
       <c r="L659">
-        <v>0.435236285937299</v>
+        <v>0.4352362859372984</v>
       </c>
       <c r="M659">
         <v>1</v>
@@ -29448,7 +29448,7 @@
         <v>-0.3205714372114485</v>
       </c>
       <c r="L660">
-        <v>1.334172241363917</v>
+        <v>1.334172241363918</v>
       </c>
       <c r="M660">
         <v>1</v>
@@ -29539,7 +29539,7 @@
         <v>1.391620780616139</v>
       </c>
       <c r="M662">
-        <v>0.8487213343035422</v>
+        <v>0.8487213343035421</v>
       </c>
       <c r="N662">
         <v>0.5</v>
@@ -29580,7 +29580,7 @@
         <v>0.9172855879613785</v>
       </c>
       <c r="L663">
-        <v>1.748532418016329</v>
+        <v>1.748532418016328</v>
       </c>
       <c r="M663">
         <v>1</v>
@@ -29668,7 +29668,7 @@
         <v>0.9637024656434957</v>
       </c>
       <c r="L665">
-        <v>2.940261658301006</v>
+        <v>2.940261658301005</v>
       </c>
       <c r="M665">
         <v>1</v>
@@ -29759,7 +29759,7 @@
         <v>1.483225463162088</v>
       </c>
       <c r="M667">
-        <v>0.3592679836023958</v>
+        <v>0.3592679836023959</v>
       </c>
       <c r="N667">
         <v>0.5</v>
@@ -29803,7 +29803,7 @@
         <v>1.575022610694143</v>
       </c>
       <c r="M668">
-        <v>0.3859409298282098</v>
+        <v>0.3859409298282099</v>
       </c>
       <c r="N668">
         <v>0.5</v>
@@ -29844,7 +29844,7 @@
         <v>0.003747510728064405</v>
       </c>
       <c r="L669">
-        <v>0.7215787962401687</v>
+        <v>0.7215787962401689</v>
       </c>
       <c r="M669">
         <v>0</v>
@@ -29888,7 +29888,7 @@
         <v>-0.2061063835356273</v>
       </c>
       <c r="L670">
-        <v>0.07095444825062139</v>
+        <v>0.07095444825062133</v>
       </c>
       <c r="M670">
         <v>0</v>
@@ -29932,10 +29932,10 @@
         <v>-0.2025708666444726</v>
       </c>
       <c r="L671">
-        <v>0.1183471495742442</v>
+        <v>0.1183471495742443</v>
       </c>
       <c r="M671">
-        <v>0.01428546022227494</v>
+        <v>0.014285460222275</v>
       </c>
       <c r="N671">
         <v>0.5</v>
@@ -30111,7 +30111,7 @@
         <v>-1.551307200022845</v>
       </c>
       <c r="M675">
-        <v>0.7028599563484095</v>
+        <v>0.702859956348409</v>
       </c>
       <c r="N675">
         <v>0.5</v>
@@ -30155,7 +30155,7 @@
         <v>-1.341996203194703</v>
       </c>
       <c r="M676">
-        <v>0.5736388965606065</v>
+        <v>0.5736388965606066</v>
       </c>
       <c r="N676">
         <v>0.5</v>
@@ -30199,7 +30199,7 @@
         <v>-1.01181103554313</v>
       </c>
       <c r="M677">
-        <v>0.3697944835258641</v>
+        <v>0.3697944835258639</v>
       </c>
       <c r="N677">
         <v>0.5</v>
@@ -30240,10 +30240,10 @@
         <v>-0.001008614783305006</v>
       </c>
       <c r="L678">
-        <v>-1.358307728006851</v>
+        <v>-1.35830772800685</v>
       </c>
       <c r="M678">
-        <v>0.5837090436380266</v>
+        <v>0.5837090436380262</v>
       </c>
       <c r="N678">
         <v>0.5</v>
@@ -30284,7 +30284,7 @@
         <v>0.1382203610188973</v>
       </c>
       <c r="L679">
-        <v>-0.6819715675337936</v>
+        <v>-0.6819715675337937</v>
       </c>
       <c r="M679">
         <v>0.1661634929811721</v>
@@ -30328,7 +30328,7 @@
         <v>0.3879121336486916</v>
       </c>
       <c r="L680">
-        <v>0.02201971430184134</v>
+        <v>0.02201971430184136</v>
       </c>
       <c r="M680">
         <v>0</v>
@@ -30372,7 +30372,7 @@
         <v>0.4078492145273405</v>
       </c>
       <c r="L681">
-        <v>0.3227733909029604</v>
+        <v>0.3227733909029607</v>
       </c>
       <c r="M681">
         <v>1</v>
@@ -30504,7 +30504,7 @@
         <v>0.9768438813296395</v>
       </c>
       <c r="L684">
-        <v>3.158809720868209</v>
+        <v>3.15880972086821</v>
       </c>
       <c r="M684">
         <v>1</v>
@@ -30592,10 +30592,10 @@
         <v>0.9392605018350951</v>
       </c>
       <c r="L686">
-        <v>2.525790456230592</v>
+        <v>2.525790456230593</v>
       </c>
       <c r="M686">
-        <v>0.6229145142235268</v>
+        <v>0.6229145142235271</v>
       </c>
       <c r="N686">
         <v>0.5</v>
@@ -30683,7 +30683,7 @@
         <v>1.497817255389758</v>
       </c>
       <c r="M688">
-        <v>0.3671644903442264</v>
+        <v>0.3671644903442263</v>
       </c>
       <c r="N688">
         <v>0.5</v>
@@ -30727,7 +30727,7 @@
         <v>1.566847392475254</v>
       </c>
       <c r="M689">
-        <v>0.3843385365095996</v>
+        <v>0.3843385365095995</v>
       </c>
       <c r="N689">
         <v>0.5</v>
@@ -30771,7 +30771,7 @@
         <v>0.6170551760189215</v>
       </c>
       <c r="M690">
-        <v>0.07913584249298421</v>
+        <v>0.07913584249298414</v>
       </c>
       <c r="N690">
         <v>0.5</v>
@@ -30812,10 +30812,10 @@
         <v>0.08286182461224469</v>
       </c>
       <c r="L691">
-        <v>0.95301803005595</v>
+        <v>0.9530180300559501</v>
       </c>
       <c r="M691">
-        <v>0.09810825270551687</v>
+        <v>0.0981082527055169</v>
       </c>
       <c r="N691">
         <v>0.5</v>
@@ -30903,7 +30903,7 @@
         <v>1.649510308851182</v>
       </c>
       <c r="M693">
-        <v>0.3014987158903326</v>
+        <v>0.3014987158903327</v>
       </c>
       <c r="N693">
         <v>0.5</v>
@@ -30988,10 +30988,10 @@
         <v>0.3732646968579661</v>
       </c>
       <c r="L695">
-        <v>1.871651263147837</v>
+        <v>1.871651263147838</v>
       </c>
       <c r="M695">
-        <v>0.6360016043895922</v>
+        <v>0.6360016043895924</v>
       </c>
       <c r="N695">
         <v>0.5</v>
@@ -31035,7 +31035,7 @@
         <v>2.416961032626647</v>
       </c>
       <c r="M696">
-        <v>0.9124394889294029</v>
+        <v>0.9124394889294031</v>
       </c>
       <c r="N696">
         <v>0.5</v>
@@ -31076,7 +31076,7 @@
         <v>0.3525268459587333</v>
       </c>
       <c r="L697">
-        <v>3.060242652960853</v>
+        <v>3.060242652960854</v>
       </c>
       <c r="M697">
         <v>1</v>
@@ -31123,7 +31123,7 @@
         <v>1.864330369672027</v>
       </c>
       <c r="M698">
-        <v>0.5105114549843243</v>
+        <v>0.5105114549843239</v>
       </c>
       <c r="N698">
         <v>0.5</v>
@@ -31255,7 +31255,7 @@
         <v>3.104171110402185</v>
       </c>
       <c r="M701">
-        <v>0.5981730414723652</v>
+        <v>0.5981730414723653</v>
       </c>
       <c r="N701">
         <v>0.5</v>
@@ -31340,7 +31340,7 @@
         <v>1</v>
       </c>
       <c r="L703">
-        <v>0.5129761740735697</v>
+        <v>0.5129761740735694</v>
       </c>
       <c r="M703">
         <v>0</v>
@@ -31384,7 +31384,7 @@
         <v>1</v>
       </c>
       <c r="L704">
-        <v>0.4879077090052481</v>
+        <v>0.4879077090052472</v>
       </c>
       <c r="M704">
         <v>0</v>
@@ -31428,7 +31428,7 @@
         <v>1</v>
       </c>
       <c r="L705">
-        <v>-0.1472597151747379</v>
+        <v>-0.1472597151747387</v>
       </c>
       <c r="M705">
         <v>1</v>
@@ -31472,7 +31472,7 @@
         <v>1</v>
       </c>
       <c r="L706">
-        <v>-0.1529790847369992</v>
+        <v>-0.1529790847369993</v>
       </c>
       <c r="M706">
         <v>1</v>
@@ -31516,7 +31516,7 @@
         <v>1</v>
       </c>
       <c r="L707">
-        <v>-0.8757682590205446</v>
+        <v>-0.8757682590205441</v>
       </c>
       <c r="M707">
         <v>1</v>
@@ -31560,7 +31560,7 @@
         <v>-0.3671469941659146</v>
       </c>
       <c r="L708">
-        <v>0.04249941418759472</v>
+        <v>0.04249941418759475</v>
       </c>
       <c r="M708">
         <v>0</v>
@@ -31648,10 +31648,10 @@
         <v>-0.2655938060635101</v>
       </c>
       <c r="L710">
-        <v>0.1696082750353421</v>
+        <v>0.1696082750353418</v>
       </c>
       <c r="M710">
-        <v>0.04151616288738699</v>
+        <v>0.0415161628873869</v>
       </c>
       <c r="N710">
         <v>0.5</v>
@@ -31692,10 +31692,10 @@
         <v>-0.355697240367514</v>
       </c>
       <c r="L711">
-        <v>-0.3692667481745267</v>
+        <v>-0.3692667481745265</v>
       </c>
       <c r="M711">
-        <v>0.3047418384797666</v>
+        <v>0.3047418384797659</v>
       </c>
       <c r="N711">
         <v>0.5</v>
@@ -31780,10 +31780,10 @@
         <v>-0.07045365243530465</v>
       </c>
       <c r="L713">
-        <v>0.5924862097070704</v>
+        <v>0.5924862097070703</v>
       </c>
       <c r="M713">
-        <v>0.3454010034975333</v>
+        <v>0.3454010034975332</v>
       </c>
       <c r="N713">
         <v>0.5</v>
@@ -31868,10 +31868,10 @@
         <v>-0.07138587280373972</v>
       </c>
       <c r="L715">
-        <v>0.5975137850116069</v>
+        <v>0.597513785011607</v>
       </c>
       <c r="M715">
-        <v>0.3485584057651752</v>
+        <v>0.3485584057651753</v>
       </c>
       <c r="N715">
         <v>0.5</v>
@@ -31912,10 +31912,10 @@
         <v>-0.1325804544456576</v>
       </c>
       <c r="L716">
-        <v>0.1467954960046093</v>
+        <v>0.1467954960046095</v>
       </c>
       <c r="M716">
-        <v>0.0654997021999995</v>
+        <v>0.06549970219999958</v>
       </c>
       <c r="N716">
         <v>0.5</v>
@@ -31956,7 +31956,7 @@
         <v>-0.1389346655878646</v>
       </c>
       <c r="L717">
-        <v>-0.3748383982186156</v>
+        <v>-0.3748383982186164</v>
       </c>
       <c r="M717">
         <v>1</v>
@@ -32047,7 +32047,7 @@
         <v>-0.9049204694296834</v>
       </c>
       <c r="M719">
-        <v>0.6431234841629964</v>
+        <v>0.6431234841629965</v>
       </c>
       <c r="N719">
         <v>0.5</v>
@@ -32132,7 +32132,7 @@
         <v>0.5632118912509848</v>
       </c>
       <c r="L721">
-        <v>0.7929998091914081</v>
+        <v>0.7929998091914087</v>
       </c>
       <c r="M721">
         <v>1</v>
@@ -32176,10 +32176,10 @@
         <v>0.1718107486764729</v>
       </c>
       <c r="L722">
-        <v>0.7172988434915457</v>
+        <v>0.7172988434915458</v>
       </c>
       <c r="M722">
-        <v>0.8828528931870817</v>
+        <v>0.8828528931870812</v>
       </c>
       <c r="N722">
         <v>0.5</v>
@@ -32223,7 +32223,7 @@
         <v>0.2472219293811664</v>
       </c>
       <c r="M723">
-        <v>0.1554097230971695</v>
+        <v>0.1554097230971692</v>
       </c>
       <c r="N723">
         <v>0.5</v>
@@ -32264,10 +32264,10 @@
         <v>-0.4125804020436361</v>
       </c>
       <c r="L724">
-        <v>-0.3361981141028625</v>
+        <v>-0.3361981141028624</v>
       </c>
       <c r="M724">
-        <v>0.09796492891958776</v>
+        <v>0.09796492891958761</v>
       </c>
       <c r="N724">
         <v>0.5</v>
@@ -32399,7 +32399,7 @@
         <v>-1.162535061073336</v>
       </c>
       <c r="M727">
-        <v>0.907325443164956</v>
+        <v>0.9073254431649556</v>
       </c>
       <c r="N727">
         <v>0.5</v>
@@ -32440,7 +32440,7 @@
         <v>-0.8763795814230247</v>
       </c>
       <c r="L728">
-        <v>-1.322504745880901</v>
+        <v>-1.322504745880902</v>
       </c>
       <c r="M728">
         <v>1</v>
@@ -32487,7 +32487,7 @@
         <v>-0.6272860218545483</v>
       </c>
       <c r="M729">
-        <v>0.356489853205493</v>
+        <v>0.3564898532054927</v>
       </c>
       <c r="N729">
         <v>0.5</v>
@@ -32528,10 +32528,10 @@
         <v>-0.3817927655585434</v>
       </c>
       <c r="L730">
-        <v>-0.4819914402779884</v>
+        <v>-0.4819914402779881</v>
       </c>
       <c r="M730">
-        <v>0.1478174448774624</v>
+        <v>0.1478174448774621</v>
       </c>
       <c r="N730">
         <v>0.5</v>
@@ -32572,10 +32572,10 @@
         <v>-0.3673271566772598</v>
       </c>
       <c r="L731">
-        <v>-0.4071843344239353</v>
+        <v>-0.4071843344239355</v>
       </c>
       <c r="M731">
-        <v>0.07197175607863873</v>
+        <v>0.07197175607863902</v>
       </c>
       <c r="N731">
         <v>0.5</v>
@@ -32616,7 +32616,7 @@
         <v>-0.2942287955851307</v>
       </c>
       <c r="L732">
-        <v>-0.07375465996496411</v>
+        <v>-0.07375465996496412</v>
       </c>
       <c r="M732">
         <v>0</v>
@@ -32660,7 +32660,7 @@
         <v>-0.2919890346626449</v>
       </c>
       <c r="L733">
-        <v>-0.0952431571537225</v>
+        <v>-0.09524315715372253</v>
       </c>
       <c r="M733">
         <v>0.01720800457282607</v>
@@ -32704,10 +32704,10 @@
         <v>-0.292065589582357</v>
       </c>
       <c r="L734">
-        <v>-0.08464181863588384</v>
+        <v>-0.0846418186358836</v>
       </c>
       <c r="M734">
-        <v>0.008718444782275375</v>
+        <v>0.008718444782275171</v>
       </c>
       <c r="N734">
         <v>0.5</v>
@@ -32748,7 +32748,7 @@
         <v>-0.09354647139391455</v>
       </c>
       <c r="L735">
-        <v>0.5132584371525355</v>
+        <v>0.5132584371525347</v>
       </c>
       <c r="M735">
         <v>1</v>
@@ -32792,7 +32792,7 @@
         <v>0.3921266054852284</v>
       </c>
       <c r="L736">
-        <v>0.598181257761272</v>
+        <v>0.5981812577612722</v>
       </c>
       <c r="M736">
         <v>1</v>
@@ -32927,7 +32927,7 @@
         <v>1.48088821697447</v>
       </c>
       <c r="M739">
-        <v>0.8075480052082115</v>
+        <v>0.8075480052082117</v>
       </c>
       <c r="N739">
         <v>0.5</v>
@@ -32971,7 +32971,7 @@
         <v>1.491828028055578</v>
       </c>
       <c r="M740">
-        <v>0.8166779666874139</v>
+        <v>0.8166779666874141</v>
       </c>
       <c r="N740">
         <v>0.5</v>
@@ -33015,7 +33015,7 @@
         <v>1.637867236032949</v>
       </c>
       <c r="M741">
-        <v>0.9385568851990121</v>
+        <v>0.9385568851990118</v>
       </c>
       <c r="N741">
         <v>0.5</v>
@@ -33059,7 +33059,7 @@
         <v>1.49419529904261</v>
       </c>
       <c r="M742">
-        <v>0.8186536034477013</v>
+        <v>0.8186536034477014</v>
       </c>
       <c r="N742">
         <v>0.5</v>
@@ -33103,7 +33103,7 @@
         <v>1.231642851353651</v>
       </c>
       <c r="M743">
-        <v>0.5995370468729655</v>
+        <v>0.5995370468729657</v>
       </c>
       <c r="N743">
         <v>0.5</v>
@@ -33188,7 +33188,7 @@
         <v>0.4892605411101988</v>
       </c>
       <c r="L745">
-        <v>2.357670988135201</v>
+        <v>2.3576709881352</v>
       </c>
       <c r="M745">
         <v>1</v>
@@ -33276,10 +33276,10 @@
         <v>0.5242074314313658</v>
       </c>
       <c r="L747">
-        <v>2.797535030954389</v>
+        <v>2.797535030954388</v>
       </c>
       <c r="M747">
-        <v>0.9434157056652583</v>
+        <v>0.9434157056652573</v>
       </c>
       <c r="N747">
         <v>0.5</v>
@@ -33408,7 +33408,7 @@
         <v>-0.2050570387591371</v>
       </c>
       <c r="L750">
-        <v>0.1794322729946846</v>
+        <v>0.1794322729946847</v>
       </c>
       <c r="M750">
         <v>0</v>
@@ -33540,10 +33540,10 @@
         <v>-0.601603408452752</v>
       </c>
       <c r="L753">
-        <v>-1.177810971023805</v>
+        <v>-1.177810971023804</v>
       </c>
       <c r="M753">
-        <v>0.7393177895130826</v>
+        <v>0.7393177895130822</v>
       </c>
       <c r="N753">
         <v>0.5</v>
@@ -33587,7 +33587,7 @@
         <v>-1.159654620410494</v>
       </c>
       <c r="M754">
-        <v>0.7241100149927607</v>
+        <v>0.7241100149927608</v>
       </c>
       <c r="N754">
         <v>0.5</v>
@@ -33631,7 +33631,7 @@
         <v>-1.244275255815746</v>
       </c>
       <c r="M755">
-        <v>0.7949883302675282</v>
+        <v>0.7949883302675285</v>
       </c>
       <c r="N755">
         <v>0.5</v>
@@ -33760,10 +33760,10 @@
         <v>-0.6860279234965039</v>
       </c>
       <c r="L758">
-        <v>-2.240095616548062</v>
+        <v>-2.240095616548063</v>
       </c>
       <c r="M758">
-        <v>0.6620075895440225</v>
+        <v>0.6620075895440224</v>
       </c>
       <c r="N758">
         <v>0.5</v>
@@ -33807,7 +33807,7 @@
         <v>-3.19324206629024</v>
       </c>
       <c r="M759">
-        <v>0.9864331639619243</v>
+        <v>0.986433163961924</v>
       </c>
       <c r="N759">
         <v>0.5</v>
@@ -33842,16 +33842,16 @@
         <v>0</v>
       </c>
       <c r="J760">
-        <v>-9.278395957555058e-05</v>
+        <v>-9.278395957555058E-05</v>
       </c>
       <c r="K760">
         <v>-0.6095609252200455</v>
       </c>
       <c r="L760">
-        <v>-2.39280305121507</v>
+        <v>-2.392803051215069</v>
       </c>
       <c r="M760">
-        <v>0.7139851185198993</v>
+        <v>0.713985118519899</v>
       </c>
       <c r="N760">
         <v>0.5</v>
@@ -33892,10 +33892,10 @@
         <v>-0.5898862984807651</v>
       </c>
       <c r="L761">
-        <v>-2.693716009135056</v>
+        <v>-2.693716009135055</v>
       </c>
       <c r="M761">
-        <v>0.7398607346818248</v>
+        <v>0.7398607346818239</v>
       </c>
       <c r="N761">
         <v>0.5</v>
@@ -33936,7 +33936,7 @@
         <v>-0.02956251185922293</v>
       </c>
       <c r="L762">
-        <v>-0.3316011454209838</v>
+        <v>-0.331601145420984</v>
       </c>
       <c r="M762">
         <v>0</v>
@@ -33980,7 +33980,7 @@
         <v>0.109694548969886</v>
       </c>
       <c r="L763">
-        <v>0.8371654904349554</v>
+        <v>0.8371654904349549</v>
       </c>
       <c r="M763">
         <v>1</v>
@@ -34024,7 +34024,7 @@
         <v>-0.0891378733424107</v>
       </c>
       <c r="L764">
-        <v>0.3234404918338262</v>
+        <v>0.3234404918338263</v>
       </c>
       <c r="M764">
         <v>0</v>
@@ -34068,7 +34068,7 @@
         <v>0.001594543419894561</v>
       </c>
       <c r="L765">
-        <v>0.8468887982311769</v>
+        <v>0.8468887982311768</v>
       </c>
       <c r="M765">
         <v>1</v>
@@ -34112,10 +34112,10 @@
         <v>0.08467278026044267</v>
       </c>
       <c r="L766">
-        <v>0.7844662748649713</v>
+        <v>0.7844662748649714</v>
       </c>
       <c r="M766">
-        <v>0.8807474919618509</v>
+        <v>0.8807474919618513</v>
       </c>
       <c r="N766">
         <v>0.5</v>
@@ -34200,7 +34200,7 @@
         <v>0.3291157748344925</v>
       </c>
       <c r="L768">
-        <v>1.972498295091731</v>
+        <v>1.97249829509173</v>
       </c>
       <c r="M768">
         <v>1</v>
@@ -34335,7 +34335,7 @@
         <v>2.769800249758385</v>
       </c>
       <c r="M771">
-        <v>0.9537006673696911</v>
+        <v>0.9537006673696908</v>
       </c>
       <c r="N771">
         <v>0.5</v>
@@ -34376,10 +34376,10 @@
         <v>0.9921826709336032</v>
       </c>
       <c r="L772">
-        <v>2.799243476681272</v>
+        <v>2.799243476681271</v>
       </c>
       <c r="M772">
-        <v>0.9651789567238688</v>
+        <v>0.9651789567238683</v>
       </c>
       <c r="N772">
         <v>0.5</v>
@@ -34423,7 +34423,7 @@
         <v>2.231961373410511</v>
       </c>
       <c r="M773">
-        <v>0.7440269700940713</v>
+        <v>0.744026970094071</v>
       </c>
       <c r="N773">
         <v>0.5</v>
@@ -34467,7 +34467,7 @@
         <v>1.572585183027486</v>
       </c>
       <c r="M774">
-        <v>0.3745638781222835</v>
+        <v>0.3745638781222834</v>
       </c>
       <c r="N774">
         <v>0.5</v>
@@ -34511,7 +34511,7 @@
         <v>1.256782575771849</v>
       </c>
       <c r="M775">
-        <v>0.2244745349157024</v>
+        <v>0.2244745349157022</v>
       </c>
       <c r="N775">
         <v>0.5</v>
@@ -34552,10 +34552,10 @@
         <v>-0.03369295665459514</v>
       </c>
       <c r="L776">
-        <v>1.591935003325446</v>
+        <v>1.591935003325447</v>
       </c>
       <c r="M776">
-        <v>0.3047511032372202</v>
+        <v>0.3047511032372201</v>
       </c>
       <c r="N776">
         <v>0.5</v>
@@ -34599,7 +34599,7 @@
         <v>1.313234790538525</v>
       </c>
       <c r="M777">
-        <v>0.03459545670067771</v>
+        <v>0.03459545670067769</v>
       </c>
       <c r="N777">
         <v>0.5</v>
@@ -34640,7 +34640,7 @@
         <v>-0.357562359270256</v>
       </c>
       <c r="L778">
-        <v>0.3820065803222149</v>
+        <v>0.3820065803222146</v>
       </c>
       <c r="M778">
         <v>0</v>
@@ -34684,7 +34684,7 @@
         <v>-0.5469146093505225</v>
       </c>
       <c r="L779">
-        <v>-0.1969284584119433</v>
+        <v>-0.1969284584119431</v>
       </c>
       <c r="M779">
         <v>1</v>
@@ -34816,10 +34816,10 @@
         <v>-0.6461611829425973</v>
       </c>
       <c r="L782">
-        <v>-0.8827734886263127</v>
+        <v>-0.882773488626313</v>
       </c>
       <c r="M782">
-        <v>0.8501809272200177</v>
+        <v>0.8501809272200184</v>
       </c>
       <c r="N782">
         <v>0.5</v>
@@ -34907,7 +34907,7 @@
         <v>-0.2189862086357759</v>
       </c>
       <c r="M784">
-        <v>0.01665809867462197</v>
+        <v>0.01665809867462213</v>
       </c>
       <c r="N784">
         <v>0.5</v>
@@ -34948,7 +34948,7 @@
         <v>0.2893256152234666</v>
       </c>
       <c r="L785">
-        <v>0.08371321075846863</v>
+        <v>0.08371321075846856</v>
       </c>
       <c r="M785">
         <v>0</v>
@@ -34992,7 +34992,7 @@
         <v>0.2478987057133614</v>
       </c>
       <c r="L786">
-        <v>0.07293780514953611</v>
+        <v>0.07293780514953607</v>
       </c>
       <c r="M786">
         <v>0</v>
@@ -35124,10 +35124,10 @@
         <v>0.270905129691193</v>
       </c>
       <c r="L789">
-        <v>0.09306475517905591</v>
+        <v>0.09306475517905577</v>
       </c>
       <c r="M789">
-        <v>0.0710563831895613</v>
+        <v>0.07105638318956094</v>
       </c>
       <c r="N789">
         <v>0.5</v>
@@ -35168,7 +35168,7 @@
         <v>0.5853142911776342</v>
       </c>
       <c r="L790">
-        <v>0.9823774005940432</v>
+        <v>0.9823774005940434</v>
       </c>
       <c r="M790">
         <v>1</v>
@@ -35212,7 +35212,7 @@
         <v>0.6837803074211261</v>
       </c>
       <c r="L791">
-        <v>2.025990580428485</v>
+        <v>2.025990580428484</v>
       </c>
       <c r="M791">
         <v>1</v>
@@ -35256,7 +35256,7 @@
         <v>0.6727395143423484</v>
       </c>
       <c r="L792">
-        <v>2.324878987760725</v>
+        <v>2.324878987760726</v>
       </c>
       <c r="M792">
         <v>1</v>
@@ -35300,7 +35300,7 @@
         <v>0.2890122982185978</v>
       </c>
       <c r="L793">
-        <v>0.7354519650422444</v>
+        <v>0.7354519650422445</v>
       </c>
       <c r="M793">
         <v>0.2941969199766152</v>
@@ -35344,7 +35344,7 @@
         <v>0.4657639136523729</v>
       </c>
       <c r="L794">
-        <v>0.7587665174684866</v>
+        <v>0.7587665174684868</v>
       </c>
       <c r="M794">
         <v>0.3045500111702353</v>
@@ -35388,10 +35388,10 @@
         <v>0.4395882663793756</v>
       </c>
       <c r="L795">
-        <v>0.6184184287200256</v>
+        <v>0.6184184287200259</v>
       </c>
       <c r="M795">
-        <v>0.2422268520077373</v>
+        <v>0.2422268520077374</v>
       </c>
       <c r="N795">
         <v>0.5</v>
@@ -35432,7 +35432,7 @@
         <v>0.4196477935747542</v>
       </c>
       <c r="L796">
-        <v>0.5064019640118945</v>
+        <v>0.5064019640118946</v>
       </c>
       <c r="M796">
         <v>0.1852023357493816</v>
@@ -35476,10 +35476,10 @@
         <v>0.5116130832770458</v>
       </c>
       <c r="L797">
-        <v>1.102939372912106</v>
+        <v>1.102939372912107</v>
       </c>
       <c r="M797">
-        <v>0.4524904461088903</v>
+        <v>0.4524904461088906</v>
       </c>
       <c r="N797">
         <v>0.5</v>
@@ -35523,7 +35523,7 @@
         <v>1.016280764595315</v>
       </c>
       <c r="M798">
-        <v>0.4136616730633184</v>
+        <v>0.4136616730633183</v>
       </c>
       <c r="N798">
         <v>0.5</v>
@@ -35611,7 +35611,7 @@
         <v>1.472924729530189</v>
       </c>
       <c r="M800">
-        <v>0.4380529672035655</v>
+        <v>0.4380529672035653</v>
       </c>
       <c r="N800">
         <v>0.5</v>
@@ -35696,10 +35696,10 @@
         <v>0.6730071936756666</v>
       </c>
       <c r="L802">
-        <v>2.167727169337425</v>
+        <v>2.167727169337426</v>
       </c>
       <c r="M802">
-        <v>0.7529552967049549</v>
+        <v>0.752955296704955</v>
       </c>
       <c r="N802">
         <v>0.5</v>
@@ -35740,10 +35740,10 @@
         <v>0.3881572060551882</v>
       </c>
       <c r="L803">
-        <v>1.737791836800024</v>
+        <v>1.737791836800023</v>
       </c>
       <c r="M803">
-        <v>0.558097550107888</v>
+        <v>0.5580975501078876</v>
       </c>
       <c r="N803">
         <v>0.5</v>
@@ -35784,10 +35784,10 @@
         <v>0.1871758324947995</v>
       </c>
       <c r="L804">
-        <v>0.8315828803886344</v>
+        <v>0.8315828803886343</v>
       </c>
       <c r="M804">
-        <v>0.1473803518951971</v>
+        <v>0.147380351895197</v>
       </c>
       <c r="N804">
         <v>0.5</v>
@@ -35872,7 +35872,7 @@
         <v>-0.5776449143133685</v>
       </c>
       <c r="L806">
-        <v>-0.11841681640313</v>
+        <v>-0.1184168164031303</v>
       </c>
       <c r="M806">
         <v>0</v>
@@ -35916,7 +35916,7 @@
         <v>-0.1991848499897274</v>
       </c>
       <c r="L807">
-        <v>0.6362088174878192</v>
+        <v>0.6362088174878193</v>
       </c>
       <c r="M807">
         <v>0</v>
@@ -36004,7 +36004,7 @@
         <v>-0.2899501159924258</v>
       </c>
       <c r="L809">
-        <v>0.1234378519295049</v>
+        <v>0.123437851929505</v>
       </c>
       <c r="M809">
         <v>0</v>
@@ -36048,10 +36048,10 @@
         <v>-0.3107353959275869</v>
       </c>
       <c r="L810">
-        <v>-0.1326716508705067</v>
+        <v>-0.1326716508705064</v>
       </c>
       <c r="M810">
-        <v>0.01360327158127003</v>
+        <v>0.01360327158126941</v>
       </c>
       <c r="N810">
         <v>0.5</v>
@@ -36092,7 +36092,7 @@
         <v>-0.4080472223713138</v>
       </c>
       <c r="L811">
-        <v>-0.6449308615128069</v>
+        <v>-0.6449308615128071</v>
       </c>
       <c r="M811">
         <v>0.5024480335686444</v>
@@ -36180,7 +36180,7 @@
         <v>-0.5633870494809674</v>
       </c>
       <c r="L813">
-        <v>-1.725754934041989</v>
+        <v>-1.725754934041988</v>
       </c>
       <c r="M813">
         <v>1</v>
@@ -36268,10 +36268,10 @@
         <v>-0.4234151153421217</v>
       </c>
       <c r="L815">
-        <v>-0.9747314928782875</v>
+        <v>-0.9747314928782873</v>
       </c>
       <c r="M815">
-        <v>0.3935475746271834</v>
+        <v>0.3935475746271832</v>
       </c>
       <c r="N815">
         <v>0.5</v>
@@ -36312,10 +36312,10 @@
         <v>-0.2029232951929145</v>
       </c>
       <c r="L816">
-        <v>-0.4563818103943497</v>
+        <v>-0.4563818103943492</v>
       </c>
       <c r="M816">
-        <v>0.1497527226855506</v>
+        <v>0.1497527226855505</v>
       </c>
       <c r="N816">
         <v>0.5</v>
@@ -36356,10 +36356,10 @@
         <v>-0.6248233559903422</v>
       </c>
       <c r="L817">
-        <v>-0.6219321172467185</v>
+        <v>-0.6219321172467186</v>
       </c>
       <c r="M817">
-        <v>0.2263385463403827</v>
+        <v>0.2263385463403829</v>
       </c>
       <c r="N817">
         <v>0.5</v>
@@ -36403,7 +36403,7 @@
         <v>-0.8238014552158263</v>
       </c>
       <c r="M818">
-        <v>0.319726047777071</v>
+        <v>0.3197260477770711</v>
       </c>
       <c r="N818">
         <v>0.5</v>
@@ -36444,7 +36444,7 @@
         <v>-0.6662326132165933</v>
       </c>
       <c r="L819">
-        <v>-0.7852032656906053</v>
+        <v>-0.7852032656906051</v>
       </c>
       <c r="M819">
         <v>0.3018700003158575</v>
